--- a/STEP2Cashflows.xlsx
+++ b/STEP2Cashflows.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4544" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -486,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2269"/>
+  <dimension ref="A1:H2313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28288,25 +28288,25 @@
     </row>
     <row r="1070" spans="1:8">
       <c r="A1070">
-        <v>1136</v>
+        <v>1140</v>
       </c>
       <c r="B1070" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1070" s="2">
-        <v>45536</v>
+        <v>44287</v>
       </c>
       <c r="D1070" s="2">
-        <v>45565</v>
+        <v>44316</v>
       </c>
       <c r="E1070">
-        <v>0</v>
+        <v>-6328</v>
       </c>
       <c r="F1070">
-        <v>1965.73</v>
+        <v>5856.23</v>
       </c>
       <c r="G1070">
-        <v>1965.73</v>
+        <v>5856.23</v>
       </c>
       <c r="H1070" t="s">
         <v>35</v>
@@ -28314,25 +28314,25 @@
     </row>
     <row r="1071" spans="1:8">
       <c r="A1071">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1071" t="s">
         <v>18</v>
       </c>
       <c r="C1071" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="D1071" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="E1071">
-        <v>-6328</v>
+        <v>1125</v>
       </c>
       <c r="F1071">
-        <v>5856.23</v>
+        <v>6981.29</v>
       </c>
       <c r="G1071">
-        <v>5856.23</v>
+        <v>6981.29</v>
       </c>
       <c r="H1071" t="s">
         <v>35</v>
@@ -28340,25 +28340,25 @@
     </row>
     <row r="1072" spans="1:8">
       <c r="A1072">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B1072" t="s">
         <v>18</v>
       </c>
       <c r="C1072" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="D1072" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="E1072">
-        <v>1125</v>
+        <v>1637</v>
       </c>
       <c r="F1072">
-        <v>6981.29</v>
+        <v>8618.74</v>
       </c>
       <c r="G1072">
-        <v>6981.29</v>
+        <v>8618.74</v>
       </c>
       <c r="H1072" t="s">
         <v>35</v>
@@ -28366,25 +28366,25 @@
     </row>
     <row r="1073" spans="1:8">
       <c r="A1073">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1073" t="s">
         <v>18</v>
       </c>
       <c r="C1073" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="D1073" s="2">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="E1073">
-        <v>1637</v>
+        <v>59</v>
       </c>
       <c r="F1073">
-        <v>8618.74</v>
+        <v>8677.379999999999</v>
       </c>
       <c r="G1073">
-        <v>8618.74</v>
+        <v>8677.379999999999</v>
       </c>
       <c r="H1073" t="s">
         <v>35</v>
@@ -28392,25 +28392,25 @@
     </row>
     <row r="1074" spans="1:8">
       <c r="A1074">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B1074" t="s">
         <v>18</v>
       </c>
       <c r="C1074" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="D1074" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="E1074">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="F1074">
-        <v>8677.379999999999</v>
+        <v>8677.450000000001</v>
       </c>
       <c r="G1074">
-        <v>8677.379999999999</v>
+        <v>8677.450000000001</v>
       </c>
       <c r="H1074" t="s">
         <v>35</v>
@@ -28418,25 +28418,25 @@
     </row>
     <row r="1075" spans="1:8">
       <c r="A1075">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1075" t="s">
         <v>18</v>
       </c>
       <c r="C1075" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="D1075" s="2">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="E1075">
-        <v>0</v>
+        <v>-27</v>
       </c>
       <c r="F1075">
-        <v>8677.450000000001</v>
+        <v>8650.76</v>
       </c>
       <c r="G1075">
-        <v>8677.450000000001</v>
+        <v>8650.76</v>
       </c>
       <c r="H1075" t="s">
         <v>35</v>
@@ -28444,25 +28444,25 @@
     </row>
     <row r="1076" spans="1:8">
       <c r="A1076">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B1076" t="s">
         <v>18</v>
       </c>
       <c r="C1076" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="D1076" s="2">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="E1076">
-        <v>-27</v>
+        <v>-80</v>
       </c>
       <c r="F1076">
-        <v>8650.76</v>
+        <v>8570.84</v>
       </c>
       <c r="G1076">
-        <v>8650.76</v>
+        <v>8570.84</v>
       </c>
       <c r="H1076" t="s">
         <v>35</v>
@@ -28470,25 +28470,25 @@
     </row>
     <row r="1077" spans="1:8">
       <c r="A1077">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1077" t="s">
         <v>18</v>
       </c>
       <c r="C1077" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="D1077" s="2">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="E1077">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="F1077">
-        <v>8570.84</v>
+        <v>8570.91</v>
       </c>
       <c r="G1077">
-        <v>8570.84</v>
+        <v>8570.91</v>
       </c>
       <c r="H1077" t="s">
         <v>35</v>
@@ -28496,25 +28496,25 @@
     </row>
     <row r="1078" spans="1:8">
       <c r="A1078">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1078" t="s">
         <v>18</v>
       </c>
       <c r="C1078" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="D1078" s="2">
-        <v>44530</v>
+        <v>44561</v>
       </c>
       <c r="E1078">
         <v>0</v>
       </c>
       <c r="F1078">
-        <v>8570.91</v>
+        <v>8570.98</v>
       </c>
       <c r="G1078">
-        <v>8570.91</v>
+        <v>8570.98</v>
       </c>
       <c r="H1078" t="s">
         <v>35</v>
@@ -28522,25 +28522,25 @@
     </row>
     <row r="1079" spans="1:8">
       <c r="A1079">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1079" t="s">
         <v>18</v>
       </c>
       <c r="C1079" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="D1079" s="2">
-        <v>44561</v>
+        <v>44592</v>
       </c>
       <c r="E1079">
         <v>0</v>
       </c>
       <c r="F1079">
-        <v>8570.98</v>
+        <v>8571.049999999999</v>
       </c>
       <c r="G1079">
-        <v>8570.98</v>
+        <v>8571.049999999999</v>
       </c>
       <c r="H1079" t="s">
         <v>35</v>
@@ -28548,25 +28548,25 @@
     </row>
     <row r="1080" spans="1:8">
       <c r="A1080">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1080" t="s">
         <v>18</v>
       </c>
       <c r="C1080" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="D1080" s="2">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="E1080">
         <v>0</v>
       </c>
       <c r="F1080">
-        <v>8571.049999999999</v>
+        <v>8571.120000000001</v>
       </c>
       <c r="G1080">
-        <v>8571.049999999999</v>
+        <v>8571.120000000001</v>
       </c>
       <c r="H1080" t="s">
         <v>35</v>
@@ -28574,25 +28574,25 @@
     </row>
     <row r="1081" spans="1:8">
       <c r="A1081">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1081" t="s">
         <v>18</v>
       </c>
       <c r="C1081" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="D1081" s="2">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="E1081">
         <v>0</v>
       </c>
       <c r="F1081">
-        <v>8571.120000000001</v>
+        <v>8571.190000000001</v>
       </c>
       <c r="G1081">
-        <v>8571.120000000001</v>
+        <v>8571.190000000001</v>
       </c>
       <c r="H1081" t="s">
         <v>35</v>
@@ -28600,25 +28600,25 @@
     </row>
     <row r="1082" spans="1:8">
       <c r="A1082">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B1082" t="s">
         <v>18</v>
       </c>
       <c r="C1082" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="D1082" s="2">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="E1082">
         <v>0</v>
       </c>
       <c r="F1082">
-        <v>8571.190000000001</v>
+        <v>8571.26</v>
       </c>
       <c r="G1082">
-        <v>8571.190000000001</v>
+        <v>8571.26</v>
       </c>
       <c r="H1082" t="s">
         <v>35</v>
@@ -28626,25 +28626,25 @@
     </row>
     <row r="1083" spans="1:8">
       <c r="A1083">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1083" t="s">
         <v>18</v>
       </c>
       <c r="C1083" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="D1083" s="2">
-        <v>44681</v>
+        <v>44712</v>
       </c>
       <c r="E1083">
         <v>0</v>
       </c>
       <c r="F1083">
-        <v>8571.26</v>
+        <v>8571.33</v>
       </c>
       <c r="G1083">
-        <v>8571.26</v>
+        <v>8571.33</v>
       </c>
       <c r="H1083" t="s">
         <v>35</v>
@@ -28652,25 +28652,25 @@
     </row>
     <row r="1084" spans="1:8">
       <c r="A1084">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B1084" t="s">
         <v>18</v>
       </c>
       <c r="C1084" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="D1084" s="2">
-        <v>44712</v>
+        <v>44742</v>
       </c>
       <c r="E1084">
         <v>0</v>
       </c>
       <c r="F1084">
-        <v>8571.33</v>
+        <v>8571.41</v>
       </c>
       <c r="G1084">
-        <v>8571.33</v>
+        <v>8571.41</v>
       </c>
       <c r="H1084" t="s">
         <v>35</v>
@@ -28678,25 +28678,25 @@
     </row>
     <row r="1085" spans="1:8">
       <c r="A1085">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1085" t="s">
         <v>18</v>
       </c>
       <c r="C1085" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="D1085" s="2">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="E1085">
         <v>0</v>
       </c>
       <c r="F1085">
-        <v>8571.41</v>
+        <v>8571.48</v>
       </c>
       <c r="G1085">
-        <v>8571.41</v>
+        <v>8571.48</v>
       </c>
       <c r="H1085" t="s">
         <v>35</v>
@@ -28704,25 +28704,25 @@
     </row>
     <row r="1086" spans="1:8">
       <c r="A1086">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B1086" t="s">
         <v>18</v>
       </c>
       <c r="C1086" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="D1086" s="2">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="E1086">
         <v>0</v>
       </c>
       <c r="F1086">
-        <v>8571.48</v>
+        <v>8571.549999999999</v>
       </c>
       <c r="G1086">
-        <v>8571.48</v>
+        <v>8571.549999999999</v>
       </c>
       <c r="H1086" t="s">
         <v>35</v>
@@ -28730,25 +28730,25 @@
     </row>
     <row r="1087" spans="1:8">
       <c r="A1087">
-        <v>1156</v>
+        <v>1136</v>
       </c>
       <c r="B1087" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1087" s="2">
-        <v>44774</v>
+        <v>45536</v>
       </c>
       <c r="D1087" s="2">
-        <v>44804</v>
+        <v>45565</v>
       </c>
       <c r="E1087">
         <v>0</v>
       </c>
       <c r="F1087">
-        <v>8571.549999999999</v>
+        <v>1965.73</v>
       </c>
       <c r="G1087">
-        <v>8571.549999999999</v>
+        <v>1965.73</v>
       </c>
       <c r="H1087" t="s">
         <v>35</v>
@@ -30368,25 +30368,25 @@
     </row>
     <row r="1150" spans="1:8">
       <c r="A1150">
-        <v>1220</v>
+        <v>1157</v>
       </c>
       <c r="B1150" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1150" s="2">
-        <v>45139</v>
+        <v>44805</v>
       </c>
       <c r="D1150" s="2">
-        <v>45169</v>
+        <v>44834</v>
       </c>
       <c r="E1150">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="F1150">
-        <v>7579.48</v>
+        <v>8571.620000000001</v>
       </c>
       <c r="G1150">
-        <v>7579.48</v>
+        <v>8571.620000000001</v>
       </c>
       <c r="H1150" t="s">
         <v>35</v>
@@ -30394,25 +30394,25 @@
     </row>
     <row r="1151" spans="1:8">
       <c r="A1151">
-        <v>1157</v>
+        <v>1223</v>
       </c>
       <c r="B1151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1151" s="2">
-        <v>44805</v>
+        <v>44256</v>
       </c>
       <c r="D1151" s="2">
-        <v>44834</v>
+        <v>44286</v>
       </c>
       <c r="E1151">
-        <v>0</v>
+        <v>-1737</v>
       </c>
       <c r="F1151">
-        <v>8571.620000000001</v>
+        <v>10461.96</v>
       </c>
       <c r="G1151">
-        <v>8571.620000000001</v>
+        <v>10461.96</v>
       </c>
       <c r="H1151" t="s">
         <v>35</v>
@@ -30420,25 +30420,25 @@
     </row>
     <row r="1152" spans="1:8">
       <c r="A1152">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B1152" t="s">
         <v>19</v>
       </c>
       <c r="C1152" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="D1152" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="E1152">
-        <v>-1737</v>
+        <v>50318</v>
       </c>
       <c r="F1152">
-        <v>10461.96</v>
+        <v>60780.45</v>
       </c>
       <c r="G1152">
-        <v>10461.96</v>
+        <v>60780.45</v>
       </c>
       <c r="H1152" t="s">
         <v>35</v>
@@ -30446,25 +30446,25 @@
     </row>
     <row r="1153" spans="1:8">
       <c r="A1153">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B1153" t="s">
         <v>19</v>
       </c>
       <c r="C1153" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="D1153" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="E1153">
-        <v>50318</v>
+        <v>-48098</v>
       </c>
       <c r="F1153">
-        <v>60780.45</v>
+        <v>12682.85</v>
       </c>
       <c r="G1153">
-        <v>60780.45</v>
+        <v>12682.85</v>
       </c>
       <c r="H1153" t="s">
         <v>35</v>
@@ -30472,25 +30472,25 @@
     </row>
     <row r="1154" spans="1:8">
       <c r="A1154">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B1154" t="s">
         <v>19</v>
       </c>
       <c r="C1154" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="D1154" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="E1154">
-        <v>-48098</v>
+        <v>1775</v>
       </c>
       <c r="F1154">
-        <v>12682.85</v>
+        <v>14457.97</v>
       </c>
       <c r="G1154">
-        <v>12682.85</v>
+        <v>14457.97</v>
       </c>
       <c r="H1154" t="s">
         <v>35</v>
@@ -30498,25 +30498,25 @@
     </row>
     <row r="1155" spans="1:8">
       <c r="A1155">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1155" t="s">
         <v>19</v>
       </c>
       <c r="C1155" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="D1155" s="2">
-        <v>44377</v>
+        <v>44408</v>
       </c>
       <c r="E1155">
-        <v>1775</v>
+        <v>-10789</v>
       </c>
       <c r="F1155">
-        <v>14457.97</v>
+        <v>3668.91</v>
       </c>
       <c r="G1155">
-        <v>14457.97</v>
+        <v>3668.91</v>
       </c>
       <c r="H1155" t="s">
         <v>35</v>
@@ -30524,25 +30524,25 @@
     </row>
     <row r="1156" spans="1:8">
       <c r="A1156">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B1156" t="s">
         <v>19</v>
       </c>
       <c r="C1156" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="D1156" s="2">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="E1156">
-        <v>-10789</v>
+        <v>-1147</v>
       </c>
       <c r="F1156">
-        <v>3668.91</v>
+        <v>2522.22</v>
       </c>
       <c r="G1156">
-        <v>3668.91</v>
+        <v>2522.22</v>
       </c>
       <c r="H1156" t="s">
         <v>35</v>
@@ -30550,25 +30550,25 @@
     </row>
     <row r="1157" spans="1:8">
       <c r="A1157">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B1157" t="s">
         <v>19</v>
       </c>
       <c r="C1157" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="D1157" s="2">
-        <v>44439</v>
+        <v>44469</v>
       </c>
       <c r="E1157">
-        <v>-1147</v>
+        <v>-2091</v>
       </c>
       <c r="F1157">
-        <v>2522.22</v>
+        <v>431.49</v>
       </c>
       <c r="G1157">
-        <v>2522.22</v>
+        <v>431.49</v>
       </c>
       <c r="H1157" t="s">
         <v>35</v>
@@ -30576,25 +30576,25 @@
     </row>
     <row r="1158" spans="1:8">
       <c r="A1158">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B1158" t="s">
         <v>19</v>
       </c>
       <c r="C1158" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="D1158" s="2">
-        <v>44469</v>
+        <v>44500</v>
       </c>
       <c r="E1158">
-        <v>-2091</v>
+        <v>6399</v>
       </c>
       <c r="F1158">
-        <v>431.49</v>
+        <v>6830.54</v>
       </c>
       <c r="G1158">
-        <v>431.49</v>
+        <v>6830.54</v>
       </c>
       <c r="H1158" t="s">
         <v>35</v>
@@ -30602,25 +30602,25 @@
     </row>
     <row r="1159" spans="1:8">
       <c r="A1159">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B1159" t="s">
         <v>19</v>
       </c>
       <c r="C1159" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="D1159" s="2">
-        <v>44500</v>
+        <v>44530</v>
       </c>
       <c r="E1159">
-        <v>6399</v>
+        <v>-4498</v>
       </c>
       <c r="F1159">
-        <v>6830.54</v>
+        <v>2332.84</v>
       </c>
       <c r="G1159">
-        <v>6830.54</v>
+        <v>2332.84</v>
       </c>
       <c r="H1159" t="s">
         <v>35</v>
@@ -30628,25 +30628,25 @@
     </row>
     <row r="1160" spans="1:8">
       <c r="A1160">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="B1160" t="s">
         <v>19</v>
       </c>
       <c r="C1160" s="2">
-        <v>44501</v>
+        <v>44562</v>
       </c>
       <c r="D1160" s="2">
-        <v>44530</v>
+        <v>44592</v>
       </c>
       <c r="E1160">
-        <v>-4498</v>
+        <v>2572</v>
       </c>
       <c r="F1160">
-        <v>2332.84</v>
+        <v>5504.3</v>
       </c>
       <c r="G1160">
-        <v>2332.84</v>
+        <v>5504.3</v>
       </c>
       <c r="H1160" t="s">
         <v>35</v>
@@ -30654,25 +30654,25 @@
     </row>
     <row r="1161" spans="1:8">
       <c r="A1161">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B1161" t="s">
         <v>19</v>
       </c>
       <c r="C1161" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="D1161" s="2">
-        <v>44592</v>
+        <v>44620</v>
       </c>
       <c r="E1161">
-        <v>2572</v>
+        <v>1128</v>
       </c>
       <c r="F1161">
-        <v>5504.3</v>
+        <v>6632.56</v>
       </c>
       <c r="G1161">
-        <v>5504.3</v>
+        <v>6632.56</v>
       </c>
       <c r="H1161" t="s">
         <v>35</v>
@@ -30680,25 +30680,25 @@
     </row>
     <row r="1162" spans="1:8">
       <c r="A1162">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B1162" t="s">
         <v>19</v>
       </c>
       <c r="C1162" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="D1162" s="2">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="E1162">
-        <v>1128</v>
+        <v>1275</v>
       </c>
       <c r="F1162">
-        <v>6632.56</v>
+        <v>7907.39</v>
       </c>
       <c r="G1162">
-        <v>6632.56</v>
+        <v>7907.39</v>
       </c>
       <c r="H1162" t="s">
         <v>35</v>
@@ -30706,25 +30706,25 @@
     </row>
     <row r="1163" spans="1:8">
       <c r="A1163">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B1163" t="s">
         <v>19</v>
       </c>
       <c r="C1163" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="D1163" s="2">
-        <v>44651</v>
+        <v>44681</v>
       </c>
       <c r="E1163">
-        <v>1275</v>
+        <v>-4173</v>
       </c>
       <c r="F1163">
-        <v>7907.39</v>
+        <v>3734.73</v>
       </c>
       <c r="G1163">
-        <v>7907.39</v>
+        <v>3734.73</v>
       </c>
       <c r="H1163" t="s">
         <v>35</v>
@@ -30732,25 +30732,25 @@
     </row>
     <row r="1164" spans="1:8">
       <c r="A1164">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="B1164" t="s">
         <v>19</v>
       </c>
       <c r="C1164" s="2">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="D1164" s="2">
-        <v>44681</v>
+        <v>44742</v>
       </c>
       <c r="E1164">
-        <v>-4173</v>
+        <v>-3116</v>
       </c>
       <c r="F1164">
-        <v>3734.73</v>
+        <v>6553.39</v>
       </c>
       <c r="G1164">
-        <v>3734.73</v>
+        <v>6553.39</v>
       </c>
       <c r="H1164" t="s">
         <v>35</v>
@@ -30758,25 +30758,25 @@
     </row>
     <row r="1165" spans="1:8">
       <c r="A1165">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B1165" t="s">
         <v>19</v>
       </c>
       <c r="C1165" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="D1165" s="2">
-        <v>44742</v>
+        <v>44773</v>
       </c>
       <c r="E1165">
-        <v>-3116</v>
+        <v>-948</v>
       </c>
       <c r="F1165">
-        <v>6553.39</v>
+        <v>5605.71</v>
       </c>
       <c r="G1165">
-        <v>6553.39</v>
+        <v>5605.71</v>
       </c>
       <c r="H1165" t="s">
         <v>35</v>
@@ -30784,25 +30784,25 @@
     </row>
     <row r="1166" spans="1:8">
       <c r="A1166">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B1166" t="s">
         <v>19</v>
       </c>
       <c r="C1166" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="D1166" s="2">
-        <v>44773</v>
+        <v>44804</v>
       </c>
       <c r="E1166">
-        <v>-948</v>
+        <v>5375</v>
       </c>
       <c r="F1166">
-        <v>5605.71</v>
+        <v>10980.31</v>
       </c>
       <c r="G1166">
-        <v>5605.71</v>
+        <v>10980.31</v>
       </c>
       <c r="H1166" t="s">
         <v>35</v>
@@ -30810,25 +30810,25 @@
     </row>
     <row r="1167" spans="1:8">
       <c r="A1167">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B1167" t="s">
         <v>19</v>
       </c>
       <c r="C1167" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="D1167" s="2">
-        <v>44804</v>
+        <v>44834</v>
       </c>
       <c r="E1167">
-        <v>5375</v>
+        <v>-993</v>
       </c>
       <c r="F1167">
-        <v>10980.31</v>
+        <v>9987.790000000001</v>
       </c>
       <c r="G1167">
-        <v>10980.31</v>
+        <v>9987.790000000001</v>
       </c>
       <c r="H1167" t="s">
         <v>35</v>
@@ -30836,25 +30836,25 @@
     </row>
     <row r="1168" spans="1:8">
       <c r="A1168">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B1168" t="s">
         <v>19</v>
       </c>
       <c r="C1168" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="D1168" s="2">
-        <v>44834</v>
+        <v>44865</v>
       </c>
       <c r="E1168">
-        <v>-993</v>
+        <v>-2234</v>
       </c>
       <c r="F1168">
-        <v>9987.790000000001</v>
+        <v>7753.55</v>
       </c>
       <c r="G1168">
-        <v>9987.790000000001</v>
+        <v>7753.55</v>
       </c>
       <c r="H1168" t="s">
         <v>35</v>
@@ -30862,25 +30862,25 @@
     </row>
     <row r="1169" spans="1:8">
       <c r="A1169">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B1169" t="s">
         <v>19</v>
       </c>
       <c r="C1169" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="D1169" s="2">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="E1169">
-        <v>-2234</v>
+        <v>442</v>
       </c>
       <c r="F1169">
-        <v>7753.55</v>
+        <v>8195.98</v>
       </c>
       <c r="G1169">
-        <v>7753.55</v>
+        <v>8195.98</v>
       </c>
       <c r="H1169" t="s">
         <v>35</v>
@@ -30888,25 +30888,25 @@
     </row>
     <row r="1170" spans="1:8">
       <c r="A1170">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B1170" t="s">
         <v>19</v>
       </c>
       <c r="C1170" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="D1170" s="2">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="E1170">
-        <v>442</v>
+        <v>-5314</v>
       </c>
       <c r="F1170">
-        <v>8195.98</v>
+        <v>2882.17</v>
       </c>
       <c r="G1170">
-        <v>8195.98</v>
+        <v>2882.17</v>
       </c>
       <c r="H1170" t="s">
         <v>35</v>
@@ -30914,25 +30914,25 @@
     </row>
     <row r="1171" spans="1:8">
       <c r="A1171">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B1171" t="s">
         <v>19</v>
       </c>
       <c r="C1171" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="D1171" s="2">
-        <v>44926</v>
+        <v>44957</v>
       </c>
       <c r="E1171">
-        <v>-5314</v>
+        <v>-561</v>
       </c>
       <c r="F1171">
-        <v>2882.17</v>
+        <v>2320.69</v>
       </c>
       <c r="G1171">
-        <v>2882.17</v>
+        <v>2320.69</v>
       </c>
       <c r="H1171" t="s">
         <v>35</v>
@@ -30940,25 +30940,25 @@
     </row>
     <row r="1172" spans="1:8">
       <c r="A1172">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B1172" t="s">
         <v>19</v>
       </c>
       <c r="C1172" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="D1172" s="2">
-        <v>44957</v>
+        <v>44985</v>
       </c>
       <c r="E1172">
-        <v>-561</v>
+        <v>215</v>
       </c>
       <c r="F1172">
-        <v>2320.69</v>
+        <v>2535.33</v>
       </c>
       <c r="G1172">
-        <v>2320.69</v>
+        <v>2535.33</v>
       </c>
       <c r="H1172" t="s">
         <v>35</v>
@@ -30966,25 +30966,25 @@
     </row>
     <row r="1173" spans="1:8">
       <c r="A1173">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B1173" t="s">
         <v>19</v>
       </c>
       <c r="C1173" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="D1173" s="2">
-        <v>44985</v>
+        <v>45016</v>
       </c>
       <c r="E1173">
-        <v>215</v>
+        <v>-1472</v>
       </c>
       <c r="F1173">
-        <v>2535.33</v>
+        <v>1063.13</v>
       </c>
       <c r="G1173">
-        <v>2535.33</v>
+        <v>1063.13</v>
       </c>
       <c r="H1173" t="s">
         <v>35</v>
@@ -30992,25 +30992,25 @@
     </row>
     <row r="1174" spans="1:8">
       <c r="A1174">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B1174" t="s">
         <v>19</v>
       </c>
       <c r="C1174" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="D1174" s="2">
-        <v>45016</v>
+        <v>45046</v>
       </c>
       <c r="E1174">
-        <v>-1472</v>
+        <v>1620</v>
       </c>
       <c r="F1174">
-        <v>1063.13</v>
+        <v>2683.49</v>
       </c>
       <c r="G1174">
-        <v>1063.13</v>
+        <v>2683.49</v>
       </c>
       <c r="H1174" t="s">
         <v>35</v>
@@ -31018,25 +31018,25 @@
     </row>
     <row r="1175" spans="1:8">
       <c r="A1175">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B1175" t="s">
         <v>19</v>
       </c>
       <c r="C1175" s="2">
-        <v>45017</v>
+        <v>45078</v>
       </c>
       <c r="D1175" s="2">
-        <v>45046</v>
+        <v>45107</v>
       </c>
       <c r="E1175">
-        <v>1620</v>
+        <v>3170</v>
       </c>
       <c r="F1175">
-        <v>2683.49</v>
+        <v>3926.41</v>
       </c>
       <c r="G1175">
-        <v>2683.49</v>
+        <v>3926.41</v>
       </c>
       <c r="H1175" t="s">
         <v>35</v>
@@ -31044,25 +31044,25 @@
     </row>
     <row r="1176" spans="1:8">
       <c r="A1176">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B1176" t="s">
         <v>19</v>
       </c>
       <c r="C1176" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="D1176" s="2">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="E1176">
-        <v>3170</v>
+        <v>-1227</v>
       </c>
       <c r="F1176">
-        <v>3926.41</v>
+        <v>2699.87</v>
       </c>
       <c r="G1176">
-        <v>3926.41</v>
+        <v>2699.87</v>
       </c>
       <c r="H1176" t="s">
         <v>35</v>
@@ -31070,25 +31070,25 @@
     </row>
     <row r="1177" spans="1:8">
       <c r="A1177">
-        <v>1251</v>
+        <v>1220</v>
       </c>
       <c r="B1177" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1177" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="D1177" s="2">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="E1177">
-        <v>-1227</v>
+        <v>-900</v>
       </c>
       <c r="F1177">
-        <v>2699.87</v>
+        <v>7579.48</v>
       </c>
       <c r="G1177">
-        <v>2699.87</v>
+        <v>7579.48</v>
       </c>
       <c r="H1177" t="s">
         <v>35</v>
@@ -55432,25 +55432,25 @@
     </row>
     <row r="2114" spans="1:8">
       <c r="A2114">
-        <v>2241</v>
+        <v>265</v>
       </c>
       <c r="B2114" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2114" s="2">
-        <v>45566</v>
+        <v>41760</v>
       </c>
       <c r="D2114" s="2">
-        <v>45596</v>
+        <v>41790</v>
       </c>
       <c r="E2114">
-        <v>1169.8</v>
+        <v>545</v>
       </c>
       <c r="F2114">
-        <v>11553.59</v>
+        <v>15161.32</v>
       </c>
       <c r="G2114">
-        <v>11553.59</v>
+        <v>15161.32</v>
       </c>
       <c r="H2114" t="s">
         <v>35</v>
@@ -55458,25 +55458,25 @@
     </row>
     <row r="2115" spans="1:8">
       <c r="A2115">
-        <v>265</v>
+        <v>389</v>
       </c>
       <c r="B2115" t="s">
         <v>10</v>
       </c>
       <c r="C2115" s="2">
-        <v>41760</v>
+        <v>45536</v>
       </c>
       <c r="D2115" s="2">
-        <v>41790</v>
+        <v>45565</v>
       </c>
       <c r="E2115">
-        <v>545</v>
+        <v>1223.03</v>
       </c>
       <c r="F2115">
-        <v>15161.32</v>
+        <v>10017.96</v>
       </c>
       <c r="G2115">
-        <v>15161.32</v>
+        <v>10017.96</v>
       </c>
       <c r="H2115" t="s">
         <v>35</v>
@@ -55484,25 +55484,25 @@
     </row>
     <row r="2116" spans="1:8">
       <c r="A2116">
-        <v>2242</v>
+        <v>519</v>
       </c>
       <c r="B2116" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2116" s="2">
-        <v>45566</v>
+        <v>43922</v>
       </c>
       <c r="D2116" s="2">
-        <v>45596</v>
+        <v>43951</v>
       </c>
       <c r="E2116">
-        <v>554.88</v>
+        <v>544</v>
       </c>
       <c r="F2116">
-        <v>5351.37</v>
+        <v>4806.94</v>
       </c>
       <c r="G2116">
-        <v>5351.37</v>
+        <v>4806.94</v>
       </c>
       <c r="H2116" t="s">
         <v>35</v>
@@ -55510,25 +55510,25 @@
     </row>
     <row r="2117" spans="1:8">
       <c r="A2117">
-        <v>2243</v>
+        <v>583</v>
       </c>
       <c r="B2117" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2117" s="2">
-        <v>45566</v>
+        <v>42095</v>
       </c>
       <c r="D2117" s="2">
-        <v>45596</v>
+        <v>42124</v>
       </c>
       <c r="E2117">
-        <v>1223.03</v>
+        <v>834</v>
       </c>
       <c r="F2117">
-        <v>11240.99</v>
+        <v>18591.65</v>
       </c>
       <c r="G2117">
-        <v>11240.99</v>
+        <v>18591.65</v>
       </c>
       <c r="H2117" t="s">
         <v>35</v>
@@ -55536,25 +55536,25 @@
     </row>
     <row r="2118" spans="1:8">
       <c r="A2118">
-        <v>389</v>
+        <v>801</v>
       </c>
       <c r="B2118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2118" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="D2118" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="E2118">
-        <v>1223.03</v>
+        <v>150.02</v>
       </c>
       <c r="F2118">
-        <v>10017.96</v>
+        <v>3111.49</v>
       </c>
       <c r="G2118">
-        <v>10017.96</v>
+        <v>3111.49</v>
       </c>
       <c r="H2118" t="s">
         <v>35</v>
@@ -55562,25 +55562,25 @@
     </row>
     <row r="2119" spans="1:8">
       <c r="A2119">
-        <v>519</v>
+        <v>899</v>
       </c>
       <c r="B2119" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2119" s="2">
-        <v>43922</v>
+        <v>45505</v>
       </c>
       <c r="D2119" s="2">
-        <v>43951</v>
+        <v>45535</v>
       </c>
       <c r="E2119">
-        <v>544</v>
+        <v>375.36</v>
       </c>
       <c r="F2119">
-        <v>4806.94</v>
+        <v>16706.35</v>
       </c>
       <c r="G2119">
-        <v>4806.94</v>
+        <v>16706.35</v>
       </c>
       <c r="H2119" t="s">
         <v>35</v>
@@ -55588,25 +55588,25 @@
     </row>
     <row r="2120" spans="1:8">
       <c r="A2120">
-        <v>2244</v>
+        <v>1018</v>
       </c>
       <c r="B2120" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2120" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="D2120" s="2">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="E2120">
-        <v>1972.52</v>
+        <v>-638.38</v>
       </c>
       <c r="F2120">
-        <v>8515.74</v>
+        <v>10279.94</v>
       </c>
       <c r="G2120">
-        <v>8515.74</v>
+        <v>10279.94</v>
       </c>
       <c r="H2120" t="s">
         <v>35</v>
@@ -55614,25 +55614,25 @@
     </row>
     <row r="2121" spans="1:8">
       <c r="A2121">
-        <v>583</v>
+        <v>1135</v>
       </c>
       <c r="B2121" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2121" s="2">
-        <v>42095</v>
+        <v>45505</v>
       </c>
       <c r="D2121" s="2">
-        <v>42124</v>
+        <v>45535</v>
       </c>
       <c r="E2121">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="F2121">
-        <v>18591.65</v>
+        <v>1965.73</v>
       </c>
       <c r="G2121">
-        <v>18591.65</v>
+        <v>1965.73</v>
       </c>
       <c r="H2121" t="s">
         <v>35</v>
@@ -55640,10 +55640,10 @@
     </row>
     <row r="2122" spans="1:8">
       <c r="A2122">
-        <v>801</v>
+        <v>1264</v>
       </c>
       <c r="B2122" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2122" s="2">
         <v>45505</v>
@@ -55652,13 +55652,13 @@
         <v>45535</v>
       </c>
       <c r="E2122">
-        <v>150.02</v>
+        <v>2002.38</v>
       </c>
       <c r="F2122">
-        <v>3111.49</v>
+        <v>12369.5</v>
       </c>
       <c r="G2122">
-        <v>3111.49</v>
+        <v>12369.5</v>
       </c>
       <c r="H2122" t="s">
         <v>35</v>
@@ -55666,10 +55666,10 @@
     </row>
     <row r="2123" spans="1:8">
       <c r="A2123">
-        <v>899</v>
+        <v>1180</v>
       </c>
       <c r="B2123" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2123" s="2">
         <v>45505</v>
@@ -55678,13 +55678,13 @@
         <v>45535</v>
       </c>
       <c r="E2123">
-        <v>375.36</v>
+        <v>0.01</v>
       </c>
       <c r="F2123">
-        <v>16706.35</v>
+        <v>1723.48</v>
       </c>
       <c r="G2123">
-        <v>16706.35</v>
+        <v>1723.48</v>
       </c>
       <c r="H2123" t="s">
         <v>35</v>
@@ -55692,25 +55692,25 @@
     </row>
     <row r="2124" spans="1:8">
       <c r="A2124">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="B2124" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2124" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="D2124" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="E2124">
-        <v>150.03</v>
+        <v>0.02</v>
       </c>
       <c r="F2124">
-        <v>3411.55</v>
+        <v>1723.5</v>
       </c>
       <c r="G2124">
-        <v>3411.55</v>
+        <v>1723.5</v>
       </c>
       <c r="H2124" t="s">
         <v>35</v>
@@ -55718,10 +55718,10 @@
     </row>
     <row r="2125" spans="1:8">
       <c r="A2125">
-        <v>1018</v>
+        <v>1591</v>
       </c>
       <c r="B2125" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C2125" s="2">
         <v>45505</v>
@@ -55730,13 +55730,13 @@
         <v>45535</v>
       </c>
       <c r="E2125">
-        <v>-638.38</v>
+        <v>-808.95</v>
       </c>
       <c r="F2125">
-        <v>10279.94</v>
+        <v>809.01</v>
       </c>
       <c r="G2125">
-        <v>10279.94</v>
+        <v>809.01</v>
       </c>
       <c r="H2125" t="s">
         <v>35</v>
@@ -55744,10 +55744,10 @@
     </row>
     <row r="2126" spans="1:8">
       <c r="A2126">
-        <v>2249</v>
+        <v>2257</v>
       </c>
       <c r="B2126" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2126" s="2">
         <v>45566</v>
@@ -55756,13 +55756,13 @@
         <v>45596</v>
       </c>
       <c r="E2126">
-        <v>3856.25</v>
+        <v>1306.21</v>
       </c>
       <c r="F2126">
-        <v>19117.94</v>
+        <v>12466.71</v>
       </c>
       <c r="G2126">
-        <v>19117.94</v>
+        <v>12466.71</v>
       </c>
       <c r="H2126" t="s">
         <v>35</v>
@@ -55770,10 +55770,10 @@
     </row>
     <row r="2127" spans="1:8">
       <c r="A2127">
-        <v>1135</v>
+        <v>1761</v>
       </c>
       <c r="B2127" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C2127" s="2">
         <v>45505</v>
@@ -55782,13 +55782,13 @@
         <v>45535</v>
       </c>
       <c r="E2127">
-        <v>0</v>
+        <v>970.59</v>
       </c>
       <c r="F2127">
-        <v>1965.73</v>
+        <v>11791.29</v>
       </c>
       <c r="G2127">
-        <v>1965.73</v>
+        <v>11791.29</v>
       </c>
       <c r="H2127" t="s">
         <v>35</v>
@@ -55796,25 +55796,25 @@
     </row>
     <row r="2128" spans="1:8">
       <c r="A2128">
-        <v>2250</v>
+        <v>1955</v>
       </c>
       <c r="B2128" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C2128" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="D2128" s="2">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="E2128">
-        <v>-38.38</v>
+        <v>-40.35</v>
       </c>
       <c r="F2128">
-        <v>12893.18</v>
+        <v>449.45</v>
       </c>
       <c r="G2128">
-        <v>12893.18</v>
+        <v>449.45</v>
       </c>
       <c r="H2128" t="s">
         <v>35</v>
@@ -55822,25 +55822,25 @@
     </row>
     <row r="2129" spans="1:8">
       <c r="A2129">
-        <v>1264</v>
+        <v>2259</v>
       </c>
       <c r="B2129" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C2129" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="D2129" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="E2129">
-        <v>2002.38</v>
+        <v>-71.53</v>
       </c>
       <c r="F2129">
-        <v>12369.5</v>
+        <v>377.92</v>
       </c>
       <c r="G2129">
-        <v>12369.5</v>
+        <v>377.92</v>
       </c>
       <c r="H2129" t="s">
         <v>35</v>
@@ -55848,10 +55848,10 @@
     </row>
     <row r="2130" spans="1:8">
       <c r="A2130">
-        <v>1180</v>
+        <v>2053</v>
       </c>
       <c r="B2130" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C2130" s="2">
         <v>45505</v>
@@ -55860,13 +55860,13 @@
         <v>45535</v>
       </c>
       <c r="E2130">
-        <v>0.01</v>
+        <v>6920.2</v>
       </c>
       <c r="F2130">
-        <v>1723.48</v>
+        <v>52665</v>
       </c>
       <c r="G2130">
-        <v>1723.48</v>
+        <v>52665</v>
       </c>
       <c r="H2130" t="s">
         <v>35</v>
@@ -55874,25 +55874,25 @@
     </row>
     <row r="2131" spans="1:8">
       <c r="A2131">
-        <v>2251</v>
+        <v>2134</v>
       </c>
       <c r="B2131" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C2131" s="2">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="D2131" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="E2131">
-        <v>0.02</v>
+        <v>0.24</v>
       </c>
       <c r="F2131">
-        <v>1723.5</v>
+        <v>28247.37</v>
       </c>
       <c r="G2131">
-        <v>1723.5</v>
+        <v>28247.37</v>
       </c>
       <c r="H2131" t="s">
         <v>35</v>
@@ -55900,25 +55900,25 @@
     </row>
     <row r="2132" spans="1:8">
       <c r="A2132">
-        <v>2252</v>
+        <v>2215</v>
       </c>
       <c r="B2132" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2132" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="D2132" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="E2132">
-        <v>1597.41</v>
+        <v>-1779.04</v>
       </c>
       <c r="F2132">
-        <v>15569.3</v>
+        <v>139378.76</v>
       </c>
       <c r="G2132">
-        <v>15569.3</v>
+        <v>139378.76</v>
       </c>
       <c r="H2132" t="s">
         <v>35</v>
@@ -55926,25 +55926,25 @@
     </row>
     <row r="2133" spans="1:8">
       <c r="A2133">
-        <v>2254</v>
+        <v>2261</v>
       </c>
       <c r="B2133" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C2133" s="2">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="D2133" s="2">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="E2133">
-        <v>65.98</v>
+        <v>0.23</v>
       </c>
       <c r="F2133">
-        <v>16956.3</v>
+        <v>28247.6</v>
       </c>
       <c r="G2133">
-        <v>16956.3</v>
+        <v>28247.6</v>
       </c>
       <c r="H2133" t="s">
         <v>35</v>
@@ -55952,25 +55952,25 @@
     </row>
     <row r="2134" spans="1:8">
       <c r="A2134">
-        <v>2253</v>
+        <v>398</v>
       </c>
       <c r="B2134" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C2134" s="2">
-        <v>45566</v>
+        <v>42370</v>
       </c>
       <c r="D2134" s="2">
-        <v>45596</v>
+        <v>42400</v>
       </c>
       <c r="E2134">
-        <v>379.07</v>
+        <v>894</v>
       </c>
       <c r="F2134">
-        <v>26281.36</v>
+        <v>4141.12</v>
       </c>
       <c r="G2134">
-        <v>26281.36</v>
+        <v>4141.12</v>
       </c>
       <c r="H2134" t="s">
         <v>35</v>
@@ -55978,25 +55978,25 @@
     </row>
     <row r="2135" spans="1:8">
       <c r="A2135">
-        <v>2255</v>
+        <v>1348</v>
       </c>
       <c r="B2135" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2135" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="D2135" s="2">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="E2135">
-        <v>2376.55</v>
+        <v>222.44</v>
       </c>
       <c r="F2135">
-        <v>12099.13</v>
+        <v>18469.68</v>
       </c>
       <c r="G2135">
-        <v>12099.13</v>
+        <v>18469.68</v>
       </c>
       <c r="H2135" t="s">
         <v>35</v>
@@ -56004,25 +56004,25 @@
     </row>
     <row r="2136" spans="1:8">
       <c r="A2136">
-        <v>1591</v>
+        <v>2241</v>
       </c>
       <c r="B2136" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C2136" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="D2136" s="2">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="E2136">
-        <v>-808.95</v>
+        <v>1169.8</v>
       </c>
       <c r="F2136">
-        <v>809.01</v>
+        <v>11553.59</v>
       </c>
       <c r="G2136">
-        <v>809.01</v>
+        <v>11553.59</v>
       </c>
       <c r="H2136" t="s">
         <v>35</v>
@@ -56030,25 +56030,25 @@
     </row>
     <row r="2137" spans="1:8">
       <c r="A2137">
-        <v>1648</v>
+        <v>2242</v>
       </c>
       <c r="B2137" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2137" s="2">
-        <v>45474</v>
+        <v>45566</v>
       </c>
       <c r="D2137" s="2">
-        <v>45504</v>
+        <v>45596</v>
       </c>
       <c r="E2137">
-        <v>-248</v>
+        <v>554.88</v>
       </c>
       <c r="F2137">
-        <v>3379.74</v>
+        <v>5351.37</v>
       </c>
       <c r="G2137">
-        <v>3379.74</v>
+        <v>5351.37</v>
       </c>
       <c r="H2137" t="s">
         <v>35</v>
@@ -56056,25 +56056,25 @@
     </row>
     <row r="2138" spans="1:8">
       <c r="A2138">
-        <v>2256</v>
+        <v>1</v>
       </c>
       <c r="B2138" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C2138" s="2">
-        <v>45566</v>
+        <v>41548</v>
       </c>
       <c r="D2138" s="2">
-        <v>45596</v>
+        <v>41578</v>
       </c>
       <c r="E2138">
-        <v>-808.95</v>
+        <v>997</v>
       </c>
       <c r="F2138">
-        <v>189.68</v>
+        <v>997.1</v>
       </c>
       <c r="G2138">
-        <v>189.68</v>
+        <v>997.1</v>
       </c>
       <c r="H2138" t="s">
         <v>35</v>
@@ -56082,25 +56082,25 @@
     </row>
     <row r="2139" spans="1:8">
       <c r="A2139">
-        <v>1761</v>
+        <v>11</v>
       </c>
       <c r="B2139" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2139" s="2">
-        <v>45505</v>
+        <v>41852</v>
       </c>
       <c r="D2139" s="2">
-        <v>45535</v>
+        <v>41882</v>
       </c>
       <c r="E2139">
-        <v>970.59</v>
+        <v>648</v>
       </c>
       <c r="F2139">
-        <v>11791.29</v>
+        <v>6236.94</v>
       </c>
       <c r="G2139">
-        <v>11791.29</v>
+        <v>6236.94</v>
       </c>
       <c r="H2139" t="s">
         <v>35</v>
@@ -56108,25 +56108,25 @@
     </row>
     <row r="2140" spans="1:8">
       <c r="A2140">
-        <v>2258</v>
+        <v>32</v>
       </c>
       <c r="B2140" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C2140" s="2">
-        <v>45566</v>
+        <v>42491</v>
       </c>
       <c r="D2140" s="2">
-        <v>45596</v>
+        <v>42521</v>
       </c>
       <c r="E2140">
-        <v>1230.99</v>
+        <v>803</v>
       </c>
       <c r="F2140">
-        <v>13903.13</v>
+        <v>6716.16</v>
       </c>
       <c r="G2140">
-        <v>13903.13</v>
+        <v>6716.16</v>
       </c>
       <c r="H2140" t="s">
         <v>35</v>
@@ -56134,25 +56134,25 @@
     </row>
     <row r="2141" spans="1:8">
       <c r="A2141">
-        <v>2257</v>
+        <v>54</v>
       </c>
       <c r="B2141" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C2141" s="2">
-        <v>45566</v>
+        <v>43160</v>
       </c>
       <c r="D2141" s="2">
-        <v>45596</v>
+        <v>43190</v>
       </c>
       <c r="E2141">
-        <v>1306.21</v>
+        <v>-322</v>
       </c>
       <c r="F2141">
-        <v>12466.71</v>
+        <v>4576.61</v>
       </c>
       <c r="G2141">
-        <v>12466.71</v>
+        <v>4576.61</v>
       </c>
       <c r="H2141" t="s">
         <v>35</v>
@@ -56160,25 +56160,25 @@
     </row>
     <row r="2142" spans="1:8">
       <c r="A2142">
-        <v>1955</v>
+        <v>75</v>
       </c>
       <c r="B2142" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C2142" s="2">
-        <v>45505</v>
+        <v>43800</v>
       </c>
       <c r="D2142" s="2">
-        <v>45535</v>
+        <v>43830</v>
       </c>
       <c r="E2142">
-        <v>-40.35</v>
+        <v>-8039</v>
       </c>
       <c r="F2142">
-        <v>449.45</v>
+        <v>6029.66</v>
       </c>
       <c r="G2142">
-        <v>449.45</v>
+        <v>6029.66</v>
       </c>
       <c r="H2142" t="s">
         <v>35</v>
@@ -56186,25 +56186,25 @@
     </row>
     <row r="2143" spans="1:8">
       <c r="A2143">
-        <v>2259</v>
+        <v>104</v>
       </c>
       <c r="B2143" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C2143" s="2">
-        <v>45536</v>
+        <v>44682</v>
       </c>
       <c r="D2143" s="2">
-        <v>45565</v>
+        <v>44712</v>
       </c>
       <c r="E2143">
-        <v>-71.53</v>
+        <v>1531</v>
       </c>
       <c r="F2143">
-        <v>377.92</v>
+        <v>5633.49</v>
       </c>
       <c r="G2143">
-        <v>377.92</v>
+        <v>5633.49</v>
       </c>
       <c r="H2143" t="s">
         <v>35</v>
@@ -56212,25 +56212,25 @@
     </row>
     <row r="2144" spans="1:8">
       <c r="A2144">
-        <v>2053</v>
+        <v>126</v>
       </c>
       <c r="B2144" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C2144" s="2">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="D2144" s="2">
-        <v>45535</v>
+        <v>45382</v>
       </c>
       <c r="E2144">
-        <v>6920.2</v>
+        <v>-805.2</v>
       </c>
       <c r="F2144">
-        <v>52665</v>
+        <v>2923.99</v>
       </c>
       <c r="G2144">
-        <v>52665</v>
+        <v>2923.99</v>
       </c>
       <c r="H2144" t="s">
         <v>35</v>
@@ -56238,25 +56238,25 @@
     </row>
     <row r="2145" spans="1:8">
       <c r="A2145">
-        <v>2260</v>
+        <v>131</v>
       </c>
       <c r="B2145" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C2145" s="2">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="D2145" s="2">
-        <v>45596</v>
+        <v>45535</v>
       </c>
       <c r="E2145">
-        <v>3426.28</v>
+        <v>1144.8</v>
       </c>
       <c r="F2145">
-        <v>32344.48</v>
+        <v>9238.99</v>
       </c>
       <c r="G2145">
-        <v>32344.48</v>
+        <v>9238.99</v>
       </c>
       <c r="H2145" t="s">
         <v>35</v>
@@ -56264,25 +56264,25 @@
     </row>
     <row r="2146" spans="1:8">
       <c r="A2146">
-        <v>2134</v>
+        <v>169</v>
       </c>
       <c r="B2146" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2146" s="2">
-        <v>45505</v>
+        <v>42887</v>
       </c>
       <c r="D2146" s="2">
-        <v>45535</v>
+        <v>42916</v>
       </c>
       <c r="E2146">
-        <v>0.24</v>
+        <v>-4</v>
       </c>
       <c r="F2146">
-        <v>28247.37</v>
+        <v>9282.629999999999</v>
       </c>
       <c r="G2146">
-        <v>28247.37</v>
+        <v>9282.629999999999</v>
       </c>
       <c r="H2146" t="s">
         <v>35</v>
@@ -56290,25 +56290,25 @@
     </row>
     <row r="2147" spans="1:8">
       <c r="A2147">
-        <v>2215</v>
+        <v>191</v>
       </c>
       <c r="B2147" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C2147" s="2">
-        <v>45536</v>
+        <v>43556</v>
       </c>
       <c r="D2147" s="2">
-        <v>45565</v>
+        <v>43585</v>
       </c>
       <c r="E2147">
-        <v>-1779.04</v>
+        <v>978</v>
       </c>
       <c r="F2147">
-        <v>139378.76</v>
+        <v>6377.28</v>
       </c>
       <c r="G2147">
-        <v>139378.76</v>
+        <v>6377.28</v>
       </c>
       <c r="H2147" t="s">
         <v>35</v>
@@ -56316,25 +56316,25 @@
     </row>
     <row r="2148" spans="1:8">
       <c r="A2148">
-        <v>2261</v>
+        <v>201</v>
       </c>
       <c r="B2148" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C2148" s="2">
-        <v>45536</v>
+        <v>43862</v>
       </c>
       <c r="D2148" s="2">
-        <v>45565</v>
+        <v>43890</v>
       </c>
       <c r="E2148">
-        <v>0.23</v>
+        <v>771</v>
       </c>
       <c r="F2148">
-        <v>28247.6</v>
+        <v>5824.01</v>
       </c>
       <c r="G2148">
-        <v>28247.6</v>
+        <v>5824.01</v>
       </c>
       <c r="H2148" t="s">
         <v>35</v>
@@ -56342,25 +56342,25 @@
     </row>
     <row r="2149" spans="1:8">
       <c r="A2149">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="B2149" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2149" s="2">
-        <v>42370</v>
+        <v>44531</v>
       </c>
       <c r="D2149" s="2">
-        <v>42400</v>
+        <v>44561</v>
       </c>
       <c r="E2149">
-        <v>894</v>
+        <v>-7592</v>
       </c>
       <c r="F2149">
-        <v>4141.12</v>
+        <v>3553.71</v>
       </c>
       <c r="G2149">
-        <v>4141.12</v>
+        <v>3553.71</v>
       </c>
       <c r="H2149" t="s">
         <v>35</v>
@@ -56368,25 +56368,25 @@
     </row>
     <row r="2150" spans="1:8">
       <c r="A2150">
-        <v>1348</v>
+        <v>244</v>
       </c>
       <c r="B2150" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C2150" s="2">
-        <v>45505</v>
+        <v>45170</v>
       </c>
       <c r="D2150" s="2">
-        <v>45535</v>
+        <v>45199</v>
       </c>
       <c r="E2150">
-        <v>222.44</v>
+        <v>1026</v>
       </c>
       <c r="F2150">
-        <v>18469.68</v>
+        <v>2805.1</v>
       </c>
       <c r="G2150">
-        <v>18469.68</v>
+        <v>2805.1</v>
       </c>
       <c r="H2150" t="s">
         <v>35</v>
@@ -56394,25 +56394,25 @@
     </row>
     <row r="2151" spans="1:8">
       <c r="A2151">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="B2151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2151" s="2">
-        <v>41548</v>
+        <v>45505</v>
       </c>
       <c r="D2151" s="2">
-        <v>41578</v>
+        <v>45535</v>
       </c>
       <c r="E2151">
-        <v>997</v>
+        <v>-823.9299999999999</v>
       </c>
       <c r="F2151">
-        <v>997.1</v>
+        <v>5569.37</v>
       </c>
       <c r="G2151">
-        <v>997.1</v>
+        <v>5569.37</v>
       </c>
       <c r="H2151" t="s">
         <v>35</v>
@@ -56420,25 +56420,25 @@
     </row>
     <row r="2152" spans="1:8">
       <c r="A2152">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="B2152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2152" s="2">
-        <v>41852</v>
+        <v>42430</v>
       </c>
       <c r="D2152" s="2">
-        <v>41882</v>
+        <v>42460</v>
       </c>
       <c r="E2152">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="F2152">
-        <v>6236.94</v>
+        <v>15822.22</v>
       </c>
       <c r="G2152">
-        <v>6236.94</v>
+        <v>15822.22</v>
       </c>
       <c r="H2152" t="s">
         <v>35</v>
@@ -56446,25 +56446,25 @@
     </row>
     <row r="2153" spans="1:8">
       <c r="A2153">
-        <v>32</v>
+        <v>323</v>
       </c>
       <c r="B2153" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2153" s="2">
-        <v>42491</v>
+        <v>43525</v>
       </c>
       <c r="D2153" s="2">
-        <v>42521</v>
+        <v>43555</v>
       </c>
       <c r="E2153">
-        <v>803</v>
+        <v>485</v>
       </c>
       <c r="F2153">
-        <v>6716.16</v>
+        <v>5536.92</v>
       </c>
       <c r="G2153">
-        <v>6716.16</v>
+        <v>5536.92</v>
       </c>
       <c r="H2153" t="s">
         <v>35</v>
@@ -56472,25 +56472,25 @@
     </row>
     <row r="2154" spans="1:8">
       <c r="A2154">
-        <v>54</v>
+        <v>345</v>
       </c>
       <c r="B2154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2154" s="2">
-        <v>43160</v>
+        <v>44197</v>
       </c>
       <c r="D2154" s="2">
-        <v>43190</v>
+        <v>44227</v>
       </c>
       <c r="E2154">
-        <v>-322</v>
+        <v>-1877</v>
       </c>
       <c r="F2154">
-        <v>4576.61</v>
+        <v>4343.37</v>
       </c>
       <c r="G2154">
-        <v>4576.61</v>
+        <v>4343.37</v>
       </c>
       <c r="H2154" t="s">
         <v>35</v>
@@ -56498,25 +56498,25 @@
     </row>
     <row r="2155" spans="1:8">
       <c r="A2155">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="B2155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2155" s="2">
-        <v>43800</v>
+        <v>44896</v>
       </c>
       <c r="D2155" s="2">
-        <v>43830</v>
+        <v>44926</v>
       </c>
       <c r="E2155">
-        <v>-8039</v>
+        <v>-9361</v>
       </c>
       <c r="F2155">
-        <v>6029.66</v>
+        <v>1490.6</v>
       </c>
       <c r="G2155">
-        <v>6029.66</v>
+        <v>1490.6</v>
       </c>
       <c r="H2155" t="s">
         <v>35</v>
@@ -56524,25 +56524,25 @@
     </row>
     <row r="2156" spans="1:8">
       <c r="A2156">
-        <v>104</v>
+        <v>388</v>
       </c>
       <c r="B2156" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2156" s="2">
-        <v>44682</v>
+        <v>45505</v>
       </c>
       <c r="D2156" s="2">
-        <v>44712</v>
+        <v>45535</v>
       </c>
       <c r="E2156">
-        <v>1531</v>
+        <v>1223.03</v>
       </c>
       <c r="F2156">
-        <v>5633.49</v>
+        <v>8794.93</v>
       </c>
       <c r="G2156">
-        <v>5633.49</v>
+        <v>8794.93</v>
       </c>
       <c r="H2156" t="s">
         <v>35</v>
@@ -56550,25 +56550,25 @@
     </row>
     <row r="2157" spans="1:8">
       <c r="A2157">
-        <v>126</v>
+        <v>419</v>
       </c>
       <c r="B2157" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2157" s="2">
-        <v>45352</v>
+        <v>43009</v>
       </c>
       <c r="D2157" s="2">
-        <v>45382</v>
+        <v>43039</v>
       </c>
       <c r="E2157">
-        <v>-805.2</v>
+        <v>-2811</v>
       </c>
       <c r="F2157">
-        <v>2923.99</v>
+        <v>10604.29</v>
       </c>
       <c r="G2157">
-        <v>2923.99</v>
+        <v>10604.29</v>
       </c>
       <c r="H2157" t="s">
         <v>35</v>
@@ -56576,25 +56576,25 @@
     </row>
     <row r="2158" spans="1:8">
       <c r="A2158">
-        <v>131</v>
+        <v>440</v>
       </c>
       <c r="B2158" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2158" s="2">
-        <v>45505</v>
+        <v>43647</v>
       </c>
       <c r="D2158" s="2">
-        <v>45535</v>
+        <v>43677</v>
       </c>
       <c r="E2158">
-        <v>1144.8</v>
+        <v>1169</v>
       </c>
       <c r="F2158">
-        <v>9238.99</v>
+        <v>10184.96</v>
       </c>
       <c r="G2158">
-        <v>9238.99</v>
+        <v>10184.96</v>
       </c>
       <c r="H2158" t="s">
         <v>35</v>
@@ -56602,25 +56602,25 @@
     </row>
     <row r="2159" spans="1:8">
       <c r="A2159">
-        <v>169</v>
+        <v>462</v>
       </c>
       <c r="B2159" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2159" s="2">
-        <v>42887</v>
+        <v>44317</v>
       </c>
       <c r="D2159" s="2">
-        <v>42916</v>
+        <v>44347</v>
       </c>
       <c r="E2159">
-        <v>-4</v>
+        <v>909</v>
       </c>
       <c r="F2159">
-        <v>9282.629999999999</v>
+        <v>8451.450000000001</v>
       </c>
       <c r="G2159">
-        <v>9282.629999999999</v>
+        <v>8451.450000000001</v>
       </c>
       <c r="H2159" t="s">
         <v>35</v>
@@ -56628,25 +56628,25 @@
     </row>
     <row r="2160" spans="1:8">
       <c r="A2160">
-        <v>191</v>
+        <v>484</v>
       </c>
       <c r="B2160" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2160" s="2">
-        <v>43556</v>
+        <v>44986</v>
       </c>
       <c r="D2160" s="2">
-        <v>43585</v>
+        <v>45016</v>
       </c>
       <c r="E2160">
-        <v>978</v>
+        <v>-778</v>
       </c>
       <c r="F2160">
-        <v>6377.28</v>
+        <v>2776.92</v>
       </c>
       <c r="G2160">
-        <v>6377.28</v>
+        <v>2776.92</v>
       </c>
       <c r="H2160" t="s">
         <v>35</v>
@@ -56654,25 +56654,25 @@
     </row>
     <row r="2161" spans="1:8">
       <c r="A2161">
-        <v>201</v>
+        <v>497</v>
       </c>
       <c r="B2161" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2161" s="2">
-        <v>43862</v>
+        <v>45383</v>
       </c>
       <c r="D2161" s="2">
-        <v>43890</v>
+        <v>45412</v>
       </c>
       <c r="E2161">
-        <v>771</v>
+        <v>-786.48</v>
       </c>
       <c r="F2161">
-        <v>5824.01</v>
+        <v>507.48</v>
       </c>
       <c r="G2161">
-        <v>5824.01</v>
+        <v>507.48</v>
       </c>
       <c r="H2161" t="s">
         <v>35</v>
@@ -56680,25 +56680,25 @@
     </row>
     <row r="2162" spans="1:8">
       <c r="A2162">
-        <v>223</v>
+        <v>501</v>
       </c>
       <c r="B2162" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2162" s="2">
-        <v>44531</v>
+        <v>45505</v>
       </c>
       <c r="D2162" s="2">
-        <v>44561</v>
+        <v>45535</v>
       </c>
       <c r="E2162">
-        <v>-7592</v>
+        <v>-786.48</v>
       </c>
       <c r="F2162">
-        <v>3553.71</v>
+        <v>6444.7</v>
       </c>
       <c r="G2162">
-        <v>3553.71</v>
+        <v>6444.7</v>
       </c>
       <c r="H2162" t="s">
         <v>35</v>
@@ -56706,25 +56706,25 @@
     </row>
     <row r="2163" spans="1:8">
       <c r="A2163">
-        <v>244</v>
+        <v>542</v>
       </c>
       <c r="B2163" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2163" s="2">
-        <v>45170</v>
+        <v>44621</v>
       </c>
       <c r="D2163" s="2">
-        <v>45199</v>
+        <v>44651</v>
       </c>
       <c r="E2163">
-        <v>1026</v>
+        <v>-5</v>
       </c>
       <c r="F2163">
-        <v>2805.1</v>
+        <v>6140.56</v>
       </c>
       <c r="G2163">
-        <v>2805.1</v>
+        <v>6140.56</v>
       </c>
       <c r="H2163" t="s">
         <v>35</v>
@@ -56732,25 +56732,25 @@
     </row>
     <row r="2164" spans="1:8">
       <c r="A2164">
-        <v>255</v>
+        <v>563</v>
       </c>
       <c r="B2164" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2164" s="2">
-        <v>45505</v>
+        <v>45261</v>
       </c>
       <c r="D2164" s="2">
-        <v>45535</v>
+        <v>45291</v>
       </c>
       <c r="E2164">
-        <v>-823.9299999999999</v>
+        <v>-3035</v>
       </c>
       <c r="F2164">
-        <v>5569.37</v>
+        <v>3910.05</v>
       </c>
       <c r="G2164">
-        <v>5569.37</v>
+        <v>3910.05</v>
       </c>
       <c r="H2164" t="s">
         <v>35</v>
@@ -56758,25 +56758,25 @@
     </row>
     <row r="2165" spans="1:8">
       <c r="A2165">
-        <v>287</v>
+        <v>589</v>
       </c>
       <c r="B2165" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2165" s="2">
-        <v>42430</v>
+        <v>42278</v>
       </c>
       <c r="D2165" s="2">
-        <v>42460</v>
+        <v>42308</v>
       </c>
       <c r="E2165">
-        <v>671</v>
+        <v>824</v>
       </c>
       <c r="F2165">
-        <v>15822.22</v>
+        <v>20966.31</v>
       </c>
       <c r="G2165">
-        <v>15822.22</v>
+        <v>20966.31</v>
       </c>
       <c r="H2165" t="s">
         <v>35</v>
@@ -56784,25 +56784,25 @@
     </row>
     <row r="2166" spans="1:8">
       <c r="A2166">
-        <v>323</v>
+        <v>2243</v>
       </c>
       <c r="B2166" t="s">
         <v>10</v>
       </c>
       <c r="C2166" s="2">
-        <v>43525</v>
+        <v>45566</v>
       </c>
       <c r="D2166" s="2">
-        <v>43555</v>
+        <v>45596</v>
       </c>
       <c r="E2166">
-        <v>485</v>
+        <v>1223.03</v>
       </c>
       <c r="F2166">
-        <v>5536.92</v>
+        <v>11240.99</v>
       </c>
       <c r="G2166">
-        <v>5536.92</v>
+        <v>11240.99</v>
       </c>
       <c r="H2166" t="s">
         <v>35</v>
@@ -56810,25 +56810,25 @@
     </row>
     <row r="2167" spans="1:8">
       <c r="A2167">
-        <v>345</v>
+        <v>2244</v>
       </c>
       <c r="B2167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2167" s="2">
-        <v>44197</v>
+        <v>45566</v>
       </c>
       <c r="D2167" s="2">
-        <v>44227</v>
+        <v>45596</v>
       </c>
       <c r="E2167">
-        <v>-1877</v>
+        <v>1972.52</v>
       </c>
       <c r="F2167">
-        <v>4343.37</v>
+        <v>8515.74</v>
       </c>
       <c r="G2167">
-        <v>4343.37</v>
+        <v>8515.74</v>
       </c>
       <c r="H2167" t="s">
         <v>35</v>
@@ -56836,25 +56836,25 @@
     </row>
     <row r="2168" spans="1:8">
       <c r="A2168">
-        <v>368</v>
+        <v>2245</v>
       </c>
       <c r="B2168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2168" s="2">
-        <v>44896</v>
+        <v>45566</v>
       </c>
       <c r="D2168" s="2">
-        <v>44926</v>
+        <v>45596</v>
       </c>
       <c r="E2168">
-        <v>-9361</v>
+        <v>181.73</v>
       </c>
       <c r="F2168">
-        <v>1490.6</v>
+        <v>9435.780000000001</v>
       </c>
       <c r="G2168">
-        <v>1490.6</v>
+        <v>9435.780000000001</v>
       </c>
       <c r="H2168" t="s">
         <v>35</v>
@@ -56862,25 +56862,25 @@
     </row>
     <row r="2169" spans="1:8">
       <c r="A2169">
-        <v>388</v>
+        <v>2246</v>
       </c>
       <c r="B2169" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2169" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="D2169" s="2">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="E2169">
-        <v>1223.03</v>
+        <v>1218.98</v>
       </c>
       <c r="F2169">
-        <v>8794.93</v>
+        <v>11756.88</v>
       </c>
       <c r="G2169">
-        <v>8794.93</v>
+        <v>11756.88</v>
       </c>
       <c r="H2169" t="s">
         <v>35</v>
@@ -56888,25 +56888,25 @@
     </row>
     <row r="2170" spans="1:8">
       <c r="A2170">
-        <v>419</v>
+        <v>2248</v>
       </c>
       <c r="B2170" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2170" s="2">
-        <v>43009</v>
+        <v>45566</v>
       </c>
       <c r="D2170" s="2">
-        <v>43039</v>
+        <v>45596</v>
       </c>
       <c r="E2170">
-        <v>-2811</v>
+        <v>150.03</v>
       </c>
       <c r="F2170">
-        <v>10604.29</v>
+        <v>3411.55</v>
       </c>
       <c r="G2170">
-        <v>10604.29</v>
+        <v>3411.55</v>
       </c>
       <c r="H2170" t="s">
         <v>35</v>
@@ -56914,25 +56914,25 @@
     </row>
     <row r="2171" spans="1:8">
       <c r="A2171">
-        <v>440</v>
+        <v>2249</v>
       </c>
       <c r="B2171" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2171" s="2">
-        <v>43647</v>
+        <v>45566</v>
       </c>
       <c r="D2171" s="2">
-        <v>43677</v>
+        <v>45596</v>
       </c>
       <c r="E2171">
-        <v>1169</v>
+        <v>3856.25</v>
       </c>
       <c r="F2171">
-        <v>10184.96</v>
+        <v>19117.94</v>
       </c>
       <c r="G2171">
-        <v>10184.96</v>
+        <v>19117.94</v>
       </c>
       <c r="H2171" t="s">
         <v>35</v>
@@ -56940,25 +56940,25 @@
     </row>
     <row r="2172" spans="1:8">
       <c r="A2172">
-        <v>462</v>
+        <v>2250</v>
       </c>
       <c r="B2172" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2172" s="2">
-        <v>44317</v>
+        <v>45566</v>
       </c>
       <c r="D2172" s="2">
-        <v>44347</v>
+        <v>45596</v>
       </c>
       <c r="E2172">
-        <v>909</v>
+        <v>-38.38</v>
       </c>
       <c r="F2172">
-        <v>8451.450000000001</v>
+        <v>12893.18</v>
       </c>
       <c r="G2172">
-        <v>8451.450000000001</v>
+        <v>12893.18</v>
       </c>
       <c r="H2172" t="s">
         <v>35</v>
@@ -56966,25 +56966,25 @@
     </row>
     <row r="2173" spans="1:8">
       <c r="A2173">
-        <v>484</v>
+        <v>2252</v>
       </c>
       <c r="B2173" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C2173" s="2">
-        <v>44986</v>
+        <v>45566</v>
       </c>
       <c r="D2173" s="2">
-        <v>45016</v>
+        <v>45596</v>
       </c>
       <c r="E2173">
-        <v>-778</v>
+        <v>1597.41</v>
       </c>
       <c r="F2173">
-        <v>2776.92</v>
+        <v>15569.3</v>
       </c>
       <c r="G2173">
-        <v>2776.92</v>
+        <v>15569.3</v>
       </c>
       <c r="H2173" t="s">
         <v>35</v>
@@ -56992,25 +56992,25 @@
     </row>
     <row r="2174" spans="1:8">
       <c r="A2174">
-        <v>497</v>
+        <v>2253</v>
       </c>
       <c r="B2174" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C2174" s="2">
-        <v>45383</v>
+        <v>45566</v>
       </c>
       <c r="D2174" s="2">
-        <v>45412</v>
+        <v>45596</v>
       </c>
       <c r="E2174">
-        <v>-786.48</v>
+        <v>379.07</v>
       </c>
       <c r="F2174">
-        <v>507.48</v>
+        <v>26281.36</v>
       </c>
       <c r="G2174">
-        <v>507.48</v>
+        <v>26281.36</v>
       </c>
       <c r="H2174" t="s">
         <v>35</v>
@@ -57018,25 +57018,25 @@
     </row>
     <row r="2175" spans="1:8">
       <c r="A2175">
-        <v>501</v>
+        <v>2254</v>
       </c>
       <c r="B2175" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C2175" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="D2175" s="2">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="E2175">
-        <v>-786.48</v>
+        <v>65.98</v>
       </c>
       <c r="F2175">
-        <v>6444.7</v>
+        <v>16956.3</v>
       </c>
       <c r="G2175">
-        <v>6444.7</v>
+        <v>16956.3</v>
       </c>
       <c r="H2175" t="s">
         <v>35</v>
@@ -57044,25 +57044,25 @@
     </row>
     <row r="2176" spans="1:8">
       <c r="A2176">
-        <v>542</v>
+        <v>2255</v>
       </c>
       <c r="B2176" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C2176" s="2">
-        <v>44621</v>
+        <v>45566</v>
       </c>
       <c r="D2176" s="2">
-        <v>44651</v>
+        <v>45596</v>
       </c>
       <c r="E2176">
-        <v>-5</v>
+        <v>2376.55</v>
       </c>
       <c r="F2176">
-        <v>6140.56</v>
+        <v>12099.13</v>
       </c>
       <c r="G2176">
-        <v>6140.56</v>
+        <v>12099.13</v>
       </c>
       <c r="H2176" t="s">
         <v>35</v>
@@ -57070,25 +57070,25 @@
     </row>
     <row r="2177" spans="1:8">
       <c r="A2177">
-        <v>563</v>
+        <v>2256</v>
       </c>
       <c r="B2177" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C2177" s="2">
-        <v>45261</v>
+        <v>45566</v>
       </c>
       <c r="D2177" s="2">
-        <v>45291</v>
+        <v>45596</v>
       </c>
       <c r="E2177">
-        <v>-3035</v>
+        <v>-808.95</v>
       </c>
       <c r="F2177">
-        <v>3910.05</v>
+        <v>189.68</v>
       </c>
       <c r="G2177">
-        <v>3910.05</v>
+        <v>189.68</v>
       </c>
       <c r="H2177" t="s">
         <v>35</v>
@@ -57096,25 +57096,25 @@
     </row>
     <row r="2178" spans="1:8">
       <c r="A2178">
-        <v>2245</v>
+        <v>1648</v>
       </c>
       <c r="B2178" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C2178" s="2">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="D2178" s="2">
-        <v>45596</v>
+        <v>45504</v>
       </c>
       <c r="E2178">
-        <v>181.73</v>
+        <v>-248</v>
       </c>
       <c r="F2178">
-        <v>9435.780000000001</v>
+        <v>3379.74</v>
       </c>
       <c r="G2178">
-        <v>9435.780000000001</v>
+        <v>3379.74</v>
       </c>
       <c r="H2178" t="s">
         <v>35</v>
@@ -57122,25 +57122,25 @@
     </row>
     <row r="2179" spans="1:8">
       <c r="A2179">
-        <v>589</v>
+        <v>2258</v>
       </c>
       <c r="B2179" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C2179" s="2">
-        <v>42278</v>
+        <v>45566</v>
       </c>
       <c r="D2179" s="2">
-        <v>42308</v>
+        <v>45596</v>
       </c>
       <c r="E2179">
-        <v>824</v>
+        <v>1230.99</v>
       </c>
       <c r="F2179">
-        <v>20966.31</v>
+        <v>13903.13</v>
       </c>
       <c r="G2179">
-        <v>20966.31</v>
+        <v>13903.13</v>
       </c>
       <c r="H2179" t="s">
         <v>35</v>
@@ -57148,10 +57148,10 @@
     </row>
     <row r="2180" spans="1:8">
       <c r="A2180">
-        <v>2246</v>
+        <v>2260</v>
       </c>
       <c r="B2180" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C2180" s="2">
         <v>45566</v>
@@ -57160,13 +57160,13 @@
         <v>45596</v>
       </c>
       <c r="E2180">
-        <v>1218.98</v>
+        <v>3426.28</v>
       </c>
       <c r="F2180">
-        <v>11756.88</v>
+        <v>32344.48</v>
       </c>
       <c r="G2180">
-        <v>11756.88</v>
+        <v>32344.48</v>
       </c>
       <c r="H2180" t="s">
         <v>35</v>
@@ -57252,28 +57252,28 @@
     </row>
     <row r="2184" spans="1:8">
       <c r="A2184">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B2184" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C2184" s="2">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="D2184" s="2">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="E2184">
-        <v>-675.63</v>
+        <v>0.01</v>
       </c>
       <c r="F2184">
-        <v>0</v>
+        <v>1723.51</v>
       </c>
       <c r="G2184">
-        <v>8760.15</v>
+        <v>1723.51</v>
       </c>
       <c r="H2184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2185" spans="1:8">
@@ -58058,25 +58058,25 @@
     </row>
     <row r="2215" spans="1:8">
       <c r="A2215">
-        <v>2263</v>
+        <v>1191</v>
       </c>
       <c r="B2215" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2215" s="2">
-        <v>45566</v>
+        <v>44256</v>
       </c>
       <c r="D2215" s="2">
-        <v>45596</v>
+        <v>44286</v>
       </c>
       <c r="E2215">
-        <v>0.01</v>
+        <v>-1754</v>
       </c>
       <c r="F2215">
-        <v>1723.51</v>
+        <v>5248.41</v>
       </c>
       <c r="G2215">
-        <v>1723.51</v>
+        <v>5248.41</v>
       </c>
       <c r="H2215" t="s">
         <v>35</v>
@@ -58084,25 +58084,25 @@
     </row>
     <row r="2216" spans="1:8">
       <c r="A2216">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="B2216" t="s">
         <v>20</v>
       </c>
       <c r="C2216" s="2">
-        <v>44256</v>
+        <v>44835</v>
       </c>
       <c r="D2216" s="2">
-        <v>44286</v>
+        <v>44865</v>
       </c>
       <c r="E2216">
-        <v>-1754</v>
+        <v>-1783</v>
       </c>
       <c r="F2216">
-        <v>5248.41</v>
+        <v>43559.66</v>
       </c>
       <c r="G2216">
-        <v>5248.41</v>
+        <v>43559.66</v>
       </c>
       <c r="H2216" t="s">
         <v>35</v>
@@ -58110,25 +58110,25 @@
     </row>
     <row r="2217" spans="1:8">
       <c r="A2217">
-        <v>1210</v>
+        <v>1237</v>
       </c>
       <c r="B2217" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2217" s="2">
-        <v>44835</v>
+        <v>44682</v>
       </c>
       <c r="D2217" s="2">
-        <v>44865</v>
+        <v>44712</v>
       </c>
       <c r="E2217">
-        <v>-1783</v>
+        <v>5934</v>
       </c>
       <c r="F2217">
-        <v>43559.66</v>
+        <v>9668.9</v>
       </c>
       <c r="G2217">
-        <v>43559.66</v>
+        <v>9668.9</v>
       </c>
       <c r="H2217" t="s">
         <v>35</v>
@@ -58136,25 +58136,25 @@
     </row>
     <row r="2218" spans="1:8">
       <c r="A2218">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="B2218" t="s">
         <v>19</v>
       </c>
       <c r="C2218" s="2">
-        <v>44682</v>
+        <v>45200</v>
       </c>
       <c r="D2218" s="2">
-        <v>44712</v>
+        <v>45230</v>
       </c>
       <c r="E2218">
-        <v>5934</v>
+        <v>-78</v>
       </c>
       <c r="F2218">
-        <v>9668.9</v>
+        <v>7281.85</v>
       </c>
       <c r="G2218">
-        <v>9668.9</v>
+        <v>7281.85</v>
       </c>
       <c r="H2218" t="s">
         <v>35</v>
@@ -58162,25 +58162,25 @@
     </row>
     <row r="2219" spans="1:8">
       <c r="A2219">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="B2219" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2219" s="2">
-        <v>45200</v>
+        <v>43252</v>
       </c>
       <c r="D2219" s="2">
-        <v>45230</v>
+        <v>43281</v>
       </c>
       <c r="E2219">
-        <v>-78</v>
+        <v>1055</v>
       </c>
       <c r="F2219">
-        <v>7281.85</v>
+        <v>17249.57</v>
       </c>
       <c r="G2219">
-        <v>7281.85</v>
+        <v>17249.57</v>
       </c>
       <c r="H2219" t="s">
         <v>35</v>
@@ -58188,25 +58188,25 @@
     </row>
     <row r="2220" spans="1:8">
       <c r="A2220">
-        <v>1274</v>
+        <v>1300</v>
       </c>
       <c r="B2220" t="s">
         <v>21</v>
       </c>
       <c r="C2220" s="2">
-        <v>43252</v>
+        <v>44044</v>
       </c>
       <c r="D2220" s="2">
-        <v>43281</v>
+        <v>44074</v>
       </c>
       <c r="E2220">
-        <v>1055</v>
+        <v>2607</v>
       </c>
       <c r="F2220">
-        <v>17249.57</v>
+        <v>7163.27</v>
       </c>
       <c r="G2220">
-        <v>17249.57</v>
+        <v>7163.27</v>
       </c>
       <c r="H2220" t="s">
         <v>35</v>
@@ -58214,25 +58214,25 @@
     </row>
     <row r="2221" spans="1:8">
       <c r="A2221">
-        <v>1300</v>
+        <v>1323</v>
       </c>
       <c r="B2221" t="s">
         <v>21</v>
       </c>
       <c r="C2221" s="2">
-        <v>44044</v>
+        <v>44743</v>
       </c>
       <c r="D2221" s="2">
-        <v>44074</v>
+        <v>44773</v>
       </c>
       <c r="E2221">
-        <v>2607</v>
+        <v>-384</v>
       </c>
       <c r="F2221">
-        <v>7163.27</v>
+        <v>27705.62</v>
       </c>
       <c r="G2221">
-        <v>7163.27</v>
+        <v>27705.62</v>
       </c>
       <c r="H2221" t="s">
         <v>35</v>
@@ -58240,25 +58240,25 @@
     </row>
     <row r="2222" spans="1:8">
       <c r="A2222">
-        <v>1323</v>
+        <v>1353</v>
       </c>
       <c r="B2222" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2222" s="2">
-        <v>44743</v>
+        <v>44256</v>
       </c>
       <c r="D2222" s="2">
-        <v>44773</v>
+        <v>44286</v>
       </c>
       <c r="E2222">
-        <v>-384</v>
+        <v>5350</v>
       </c>
       <c r="F2222">
-        <v>27705.62</v>
+        <v>11379.01</v>
       </c>
       <c r="G2222">
-        <v>27705.62</v>
+        <v>11379.01</v>
       </c>
       <c r="H2222" t="s">
         <v>35</v>
@@ -58266,25 +58266,25 @@
     </row>
     <row r="2223" spans="1:8">
       <c r="A2223">
-        <v>1353</v>
+        <v>1376</v>
       </c>
       <c r="B2223" t="s">
         <v>22</v>
       </c>
       <c r="C2223" s="2">
-        <v>44256</v>
+        <v>44958</v>
       </c>
       <c r="D2223" s="2">
-        <v>44286</v>
+        <v>44985</v>
       </c>
       <c r="E2223">
-        <v>5350</v>
+        <v>6416</v>
       </c>
       <c r="F2223">
-        <v>11379.01</v>
+        <v>17749.69</v>
       </c>
       <c r="G2223">
-        <v>11379.01</v>
+        <v>17749.69</v>
       </c>
       <c r="H2223" t="s">
         <v>35</v>
@@ -58292,25 +58292,25 @@
     </row>
     <row r="2224" spans="1:8">
       <c r="A2224">
-        <v>1376</v>
+        <v>2266</v>
       </c>
       <c r="B2224" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2224" s="2">
-        <v>44958</v>
+        <v>45566</v>
       </c>
       <c r="D2224" s="2">
-        <v>44985</v>
+        <v>45596</v>
       </c>
       <c r="E2224">
-        <v>6416</v>
+        <v>-28.17</v>
       </c>
       <c r="F2224">
-        <v>17749.69</v>
+        <v>349.75</v>
       </c>
       <c r="G2224">
-        <v>17749.69</v>
+        <v>349.75</v>
       </c>
       <c r="H2224" t="s">
         <v>35</v>
@@ -58318,51 +58318,51 @@
     </row>
     <row r="2225" spans="1:8">
       <c r="A2225">
-        <v>2264</v>
+        <v>1401</v>
       </c>
       <c r="B2225" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2225" s="2">
-        <v>45597</v>
+        <v>43313</v>
       </c>
       <c r="D2225" s="2">
-        <v>45626</v>
+        <v>43343</v>
       </c>
       <c r="E2225">
-        <v>-1383.06</v>
+        <v>-310</v>
       </c>
       <c r="F2225">
-        <v>0</v>
+        <v>1987.59</v>
       </c>
       <c r="G2225">
-        <v>15573.24</v>
+        <v>1987.59</v>
       </c>
       <c r="H2225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2226" spans="1:8">
       <c r="A2226">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="B2226" t="s">
         <v>23</v>
       </c>
       <c r="C2226" s="2">
-        <v>43313</v>
+        <v>43952</v>
       </c>
       <c r="D2226" s="2">
-        <v>43343</v>
+        <v>43982</v>
       </c>
       <c r="E2226">
-        <v>-310</v>
+        <v>1867</v>
       </c>
       <c r="F2226">
-        <v>1987.59</v>
+        <v>11383.65</v>
       </c>
       <c r="G2226">
-        <v>1987.59</v>
+        <v>11383.65</v>
       </c>
       <c r="H2226" t="s">
         <v>35</v>
@@ -58370,25 +58370,25 @@
     </row>
     <row r="2227" spans="1:8">
       <c r="A2227">
-        <v>1422</v>
+        <v>1443</v>
       </c>
       <c r="B2227" t="s">
         <v>23</v>
       </c>
       <c r="C2227" s="2">
-        <v>43952</v>
+        <v>44593</v>
       </c>
       <c r="D2227" s="2">
-        <v>43982</v>
+        <v>44620</v>
       </c>
       <c r="E2227">
-        <v>1867</v>
+        <v>5856</v>
       </c>
       <c r="F2227">
-        <v>11383.65</v>
+        <v>12605.63</v>
       </c>
       <c r="G2227">
-        <v>11383.65</v>
+        <v>12605.63</v>
       </c>
       <c r="H2227" t="s">
         <v>35</v>
@@ -58396,25 +58396,25 @@
     </row>
     <row r="2228" spans="1:8">
       <c r="A2228">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B2228" t="s">
         <v>23</v>
       </c>
       <c r="C2228" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="D2228" s="2">
-        <v>44620</v>
+        <v>44651</v>
       </c>
       <c r="E2228">
-        <v>5856</v>
+        <v>7581</v>
       </c>
       <c r="F2228">
-        <v>12605.63</v>
+        <v>20186.77</v>
       </c>
       <c r="G2228">
-        <v>12605.63</v>
+        <v>20186.77</v>
       </c>
       <c r="H2228" t="s">
         <v>35</v>
@@ -58422,25 +58422,25 @@
     </row>
     <row r="2229" spans="1:8">
       <c r="A2229">
-        <v>1444</v>
+        <v>1470</v>
       </c>
       <c r="B2229" t="s">
         <v>23</v>
       </c>
       <c r="C2229" s="2">
-        <v>44621</v>
+        <v>45413</v>
       </c>
       <c r="D2229" s="2">
-        <v>44651</v>
+        <v>45443</v>
       </c>
       <c r="E2229">
-        <v>7581</v>
+        <v>-0.15</v>
       </c>
       <c r="F2229">
-        <v>20186.77</v>
+        <v>5365.03</v>
       </c>
       <c r="G2229">
-        <v>20186.77</v>
+        <v>5365.03</v>
       </c>
       <c r="H2229" t="s">
         <v>35</v>
@@ -58448,25 +58448,25 @@
     </row>
     <row r="2230" spans="1:8">
       <c r="A2230">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="B2230" t="s">
         <v>23</v>
       </c>
       <c r="C2230" s="2">
-        <v>45413</v>
+        <v>45505</v>
       </c>
       <c r="D2230" s="2">
-        <v>45443</v>
+        <v>45535</v>
       </c>
       <c r="E2230">
-        <v>-0.15</v>
+        <v>1417.35</v>
       </c>
       <c r="F2230">
-        <v>5365.03</v>
+        <v>9540.639999999999</v>
       </c>
       <c r="G2230">
-        <v>5365.03</v>
+        <v>9540.639999999999</v>
       </c>
       <c r="H2230" t="s">
         <v>35</v>
@@ -58474,25 +58474,25 @@
     </row>
     <row r="2231" spans="1:8">
       <c r="A2231">
-        <v>1473</v>
+        <v>2267</v>
       </c>
       <c r="B2231" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C2231" s="2">
-        <v>45505</v>
+        <v>45566</v>
       </c>
       <c r="D2231" s="2">
-        <v>45535</v>
+        <v>45596</v>
       </c>
       <c r="E2231">
-        <v>1417.35</v>
+        <v>0.24</v>
       </c>
       <c r="F2231">
-        <v>9540.639999999999</v>
+        <v>28247.84</v>
       </c>
       <c r="G2231">
-        <v>9540.639999999999</v>
+        <v>28247.84</v>
       </c>
       <c r="H2231" t="s">
         <v>35</v>
@@ -58500,51 +58500,51 @@
     </row>
     <row r="2232" spans="1:8">
       <c r="A2232">
-        <v>2265</v>
+        <v>1493</v>
       </c>
       <c r="B2232" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2232" s="2">
-        <v>45597</v>
+        <v>42522</v>
       </c>
       <c r="D2232" s="2">
-        <v>45626</v>
+        <v>42551</v>
       </c>
       <c r="E2232">
-        <v>-1383.06</v>
+        <v>-1601</v>
       </c>
       <c r="F2232">
-        <v>0</v>
+        <v>8137.08</v>
       </c>
       <c r="G2232">
-        <v>10716.07</v>
+        <v>8137.08</v>
       </c>
       <c r="H2232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2233" spans="1:8">
       <c r="A2233">
-        <v>1493</v>
+        <v>1514</v>
       </c>
       <c r="B2233" t="s">
         <v>24</v>
       </c>
       <c r="C2233" s="2">
-        <v>42522</v>
+        <v>43160</v>
       </c>
       <c r="D2233" s="2">
-        <v>42551</v>
+        <v>43190</v>
       </c>
       <c r="E2233">
-        <v>-1601</v>
+        <v>1092</v>
       </c>
       <c r="F2233">
-        <v>8137.08</v>
+        <v>6000.66</v>
       </c>
       <c r="G2233">
-        <v>8137.08</v>
+        <v>6000.66</v>
       </c>
       <c r="H2233" t="s">
         <v>35</v>
@@ -58552,25 +58552,25 @@
     </row>
     <row r="2234" spans="1:8">
       <c r="A2234">
-        <v>1514</v>
+        <v>1540</v>
       </c>
       <c r="B2234" t="s">
         <v>24</v>
       </c>
       <c r="C2234" s="2">
-        <v>43160</v>
+        <v>43952</v>
       </c>
       <c r="D2234" s="2">
-        <v>43190</v>
+        <v>43982</v>
       </c>
       <c r="E2234">
-        <v>1092</v>
+        <v>786</v>
       </c>
       <c r="F2234">
-        <v>6000.66</v>
+        <v>8480.809999999999</v>
       </c>
       <c r="G2234">
-        <v>6000.66</v>
+        <v>8480.809999999999</v>
       </c>
       <c r="H2234" t="s">
         <v>35</v>
@@ -58578,25 +58578,25 @@
     </row>
     <row r="2235" spans="1:8">
       <c r="A2235">
-        <v>1540</v>
+        <v>1561</v>
       </c>
       <c r="B2235" t="s">
         <v>24</v>
       </c>
       <c r="C2235" s="2">
-        <v>43952</v>
+        <v>44593</v>
       </c>
       <c r="D2235" s="2">
-        <v>43982</v>
+        <v>44620</v>
       </c>
       <c r="E2235">
-        <v>786</v>
+        <v>-809</v>
       </c>
       <c r="F2235">
-        <v>8480.809999999999</v>
+        <v>4610.51</v>
       </c>
       <c r="G2235">
-        <v>8480.809999999999</v>
+        <v>4610.51</v>
       </c>
       <c r="H2235" t="s">
         <v>35</v>
@@ -58604,25 +58604,25 @@
     </row>
     <row r="2236" spans="1:8">
       <c r="A2236">
-        <v>1561</v>
+        <v>1582</v>
       </c>
       <c r="B2236" t="s">
         <v>24</v>
       </c>
       <c r="C2236" s="2">
-        <v>44593</v>
+        <v>45231</v>
       </c>
       <c r="D2236" s="2">
-        <v>44620</v>
+        <v>45260</v>
       </c>
       <c r="E2236">
-        <v>-809</v>
+        <v>1381</v>
       </c>
       <c r="F2236">
-        <v>4610.51</v>
+        <v>11738.72</v>
       </c>
       <c r="G2236">
-        <v>4610.51</v>
+        <v>11738.72</v>
       </c>
       <c r="H2236" t="s">
         <v>35</v>
@@ -58630,25 +58630,25 @@
     </row>
     <row r="2237" spans="1:8">
       <c r="A2237">
-        <v>1582</v>
+        <v>1603</v>
       </c>
       <c r="B2237" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2237" s="2">
-        <v>45231</v>
+        <v>44105</v>
       </c>
       <c r="D2237" s="2">
-        <v>45260</v>
+        <v>44135</v>
       </c>
       <c r="E2237">
-        <v>1381</v>
+        <v>495</v>
       </c>
       <c r="F2237">
-        <v>11738.72</v>
+        <v>8798.93</v>
       </c>
       <c r="G2237">
-        <v>11738.72</v>
+        <v>8798.93</v>
       </c>
       <c r="H2237" t="s">
         <v>35</v>
@@ -58656,25 +58656,25 @@
     </row>
     <row r="2238" spans="1:8">
       <c r="A2238">
-        <v>1603</v>
+        <v>1624</v>
       </c>
       <c r="B2238" t="s">
         <v>25</v>
       </c>
       <c r="C2238" s="2">
-        <v>44105</v>
+        <v>44743</v>
       </c>
       <c r="D2238" s="2">
-        <v>44135</v>
+        <v>44773</v>
       </c>
       <c r="E2238">
-        <v>495</v>
+        <v>4618</v>
       </c>
       <c r="F2238">
-        <v>8798.93</v>
+        <v>6391.23</v>
       </c>
       <c r="G2238">
-        <v>8798.93</v>
+        <v>6391.23</v>
       </c>
       <c r="H2238" t="s">
         <v>35</v>
@@ -58682,25 +58682,25 @@
     </row>
     <row r="2239" spans="1:8">
       <c r="A2239">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="B2239" t="s">
         <v>25</v>
       </c>
       <c r="C2239" s="2">
-        <v>44743</v>
+        <v>45047</v>
       </c>
       <c r="D2239" s="2">
-        <v>44773</v>
+        <v>45077</v>
       </c>
       <c r="E2239">
-        <v>4618</v>
+        <v>4809</v>
       </c>
       <c r="F2239">
-        <v>6391.23</v>
+        <v>6557.88</v>
       </c>
       <c r="G2239">
-        <v>6391.23</v>
+        <v>6557.88</v>
       </c>
       <c r="H2239" t="s">
         <v>35</v>
@@ -58708,25 +58708,25 @@
     </row>
     <row r="2240" spans="1:8">
       <c r="A2240">
-        <v>1634</v>
+        <v>1659</v>
       </c>
       <c r="B2240" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2240" s="2">
-        <v>45047</v>
+        <v>42401</v>
       </c>
       <c r="D2240" s="2">
-        <v>45077</v>
+        <v>42429</v>
       </c>
       <c r="E2240">
-        <v>4809</v>
+        <v>2488</v>
       </c>
       <c r="F2240">
-        <v>6557.88</v>
+        <v>9105.559999999999</v>
       </c>
       <c r="G2240">
-        <v>6557.88</v>
+        <v>9105.559999999999</v>
       </c>
       <c r="H2240" t="s">
         <v>35</v>
@@ -58734,25 +58734,25 @@
     </row>
     <row r="2241" spans="1:8">
       <c r="A2241">
-        <v>1659</v>
+        <v>1681</v>
       </c>
       <c r="B2241" t="s">
         <v>26</v>
       </c>
       <c r="C2241" s="2">
-        <v>42401</v>
+        <v>43070</v>
       </c>
       <c r="D2241" s="2">
-        <v>42429</v>
+        <v>43100</v>
       </c>
       <c r="E2241">
-        <v>2488</v>
+        <v>-9789</v>
       </c>
       <c r="F2241">
-        <v>9105.559999999999</v>
+        <v>2178.03</v>
       </c>
       <c r="G2241">
-        <v>9105.559999999999</v>
+        <v>2178.03</v>
       </c>
       <c r="H2241" t="s">
         <v>35</v>
@@ -58760,25 +58760,25 @@
     </row>
     <row r="2242" spans="1:8">
       <c r="A2242">
-        <v>1681</v>
+        <v>1702</v>
       </c>
       <c r="B2242" t="s">
         <v>26</v>
       </c>
       <c r="C2242" s="2">
-        <v>43070</v>
+        <v>43709</v>
       </c>
       <c r="D2242" s="2">
-        <v>43100</v>
+        <v>43738</v>
       </c>
       <c r="E2242">
-        <v>-9789</v>
+        <v>896</v>
       </c>
       <c r="F2242">
-        <v>2178.03</v>
+        <v>8303.860000000001</v>
       </c>
       <c r="G2242">
-        <v>2178.03</v>
+        <v>8303.860000000001</v>
       </c>
       <c r="H2242" t="s">
         <v>35</v>
@@ -58786,25 +58786,25 @@
     </row>
     <row r="2243" spans="1:8">
       <c r="A2243">
-        <v>1702</v>
+        <v>1723</v>
       </c>
       <c r="B2243" t="s">
         <v>26</v>
       </c>
       <c r="C2243" s="2">
-        <v>43709</v>
+        <v>44348</v>
       </c>
       <c r="D2243" s="2">
-        <v>43738</v>
+        <v>44377</v>
       </c>
       <c r="E2243">
-        <v>896</v>
+        <v>781</v>
       </c>
       <c r="F2243">
-        <v>8303.860000000001</v>
+        <v>8476.34</v>
       </c>
       <c r="G2243">
-        <v>8303.860000000001</v>
+        <v>8476.34</v>
       </c>
       <c r="H2243" t="s">
         <v>35</v>
@@ -58812,25 +58812,25 @@
     </row>
     <row r="2244" spans="1:8">
       <c r="A2244">
-        <v>1723</v>
+        <v>1733</v>
       </c>
       <c r="B2244" t="s">
         <v>26</v>
       </c>
       <c r="C2244" s="2">
-        <v>44348</v>
+        <v>44652</v>
       </c>
       <c r="D2244" s="2">
-        <v>44377</v>
+        <v>44681</v>
       </c>
       <c r="E2244">
-        <v>781</v>
+        <v>-1171</v>
       </c>
       <c r="F2244">
-        <v>8476.34</v>
+        <v>4372.19</v>
       </c>
       <c r="G2244">
-        <v>8476.34</v>
+        <v>4372.19</v>
       </c>
       <c r="H2244" t="s">
         <v>35</v>
@@ -58838,25 +58838,25 @@
     </row>
     <row r="2245" spans="1:8">
       <c r="A2245">
-        <v>1733</v>
+        <v>1754</v>
       </c>
       <c r="B2245" t="s">
         <v>26</v>
       </c>
       <c r="C2245" s="2">
-        <v>44652</v>
+        <v>45292</v>
       </c>
       <c r="D2245" s="2">
-        <v>44681</v>
+        <v>45322</v>
       </c>
       <c r="E2245">
-        <v>-1171</v>
+        <v>1181.21</v>
       </c>
       <c r="F2245">
-        <v>4372.19</v>
+        <v>3698.69</v>
       </c>
       <c r="G2245">
-        <v>4372.19</v>
+        <v>3698.69</v>
       </c>
       <c r="H2245" t="s">
         <v>35</v>
@@ -58864,25 +58864,25 @@
     </row>
     <row r="2246" spans="1:8">
       <c r="A2246">
-        <v>1754</v>
+        <v>1775</v>
       </c>
       <c r="B2246" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2246" s="2">
-        <v>45292</v>
+        <v>42430</v>
       </c>
       <c r="D2246" s="2">
-        <v>45322</v>
+        <v>42460</v>
       </c>
       <c r="E2246">
-        <v>1181.21</v>
+        <v>269</v>
       </c>
       <c r="F2246">
-        <v>3698.69</v>
+        <v>-2392.55</v>
       </c>
       <c r="G2246">
-        <v>3698.69</v>
+        <v>-2392.55</v>
       </c>
       <c r="H2246" t="s">
         <v>35</v>
@@ -58890,25 +58890,25 @@
     </row>
     <row r="2247" spans="1:8">
       <c r="A2247">
-        <v>1775</v>
+        <v>1796</v>
       </c>
       <c r="B2247" t="s">
         <v>27</v>
       </c>
       <c r="C2247" s="2">
-        <v>42430</v>
+        <v>43070</v>
       </c>
       <c r="D2247" s="2">
-        <v>42460</v>
+        <v>43100</v>
       </c>
       <c r="E2247">
-        <v>269</v>
+        <v>-6657</v>
       </c>
       <c r="F2247">
-        <v>-2392.55</v>
+        <v>1129.74</v>
       </c>
       <c r="G2247">
-        <v>-2392.55</v>
+        <v>1129.74</v>
       </c>
       <c r="H2247" t="s">
         <v>35</v>
@@ -58916,25 +58916,25 @@
     </row>
     <row r="2248" spans="1:8">
       <c r="A2248">
-        <v>1796</v>
+        <v>1817</v>
       </c>
       <c r="B2248" t="s">
         <v>27</v>
       </c>
       <c r="C2248" s="2">
-        <v>43070</v>
+        <v>43709</v>
       </c>
       <c r="D2248" s="2">
-        <v>43100</v>
+        <v>43738</v>
       </c>
       <c r="E2248">
-        <v>-6657</v>
+        <v>575</v>
       </c>
       <c r="F2248">
-        <v>1129.74</v>
+        <v>7435.04</v>
       </c>
       <c r="G2248">
-        <v>1129.74</v>
+        <v>7435.04</v>
       </c>
       <c r="H2248" t="s">
         <v>35</v>
@@ -58942,25 +58942,25 @@
     </row>
     <row r="2249" spans="1:8">
       <c r="A2249">
-        <v>1817</v>
+        <v>1839</v>
       </c>
       <c r="B2249" t="s">
         <v>27</v>
       </c>
       <c r="C2249" s="2">
-        <v>43709</v>
+        <v>44378</v>
       </c>
       <c r="D2249" s="2">
-        <v>43738</v>
+        <v>44408</v>
       </c>
       <c r="E2249">
-        <v>575</v>
+        <v>333</v>
       </c>
       <c r="F2249">
-        <v>7435.04</v>
+        <v>3653.11</v>
       </c>
       <c r="G2249">
-        <v>7435.04</v>
+        <v>3653.11</v>
       </c>
       <c r="H2249" t="s">
         <v>35</v>
@@ -58968,25 +58968,25 @@
     </row>
     <row r="2250" spans="1:8">
       <c r="A2250">
-        <v>1839</v>
+        <v>1860</v>
       </c>
       <c r="B2250" t="s">
         <v>27</v>
       </c>
       <c r="C2250" s="2">
-        <v>44378</v>
+        <v>45017</v>
       </c>
       <c r="D2250" s="2">
-        <v>44408</v>
+        <v>45046</v>
       </c>
       <c r="E2250">
-        <v>333</v>
+        <v>1081</v>
       </c>
       <c r="F2250">
-        <v>3653.11</v>
+        <v>5974.01</v>
       </c>
       <c r="G2250">
-        <v>3653.11</v>
+        <v>5974.01</v>
       </c>
       <c r="H2250" t="s">
         <v>35</v>
@@ -58994,25 +58994,25 @@
     </row>
     <row r="2251" spans="1:8">
       <c r="A2251">
-        <v>1860</v>
+        <v>1876</v>
       </c>
       <c r="B2251" t="s">
         <v>27</v>
       </c>
       <c r="C2251" s="2">
-        <v>45017</v>
+        <v>45505</v>
       </c>
       <c r="D2251" s="2">
-        <v>45046</v>
+        <v>45535</v>
       </c>
       <c r="E2251">
-        <v>1081</v>
+        <v>1130.99</v>
       </c>
       <c r="F2251">
-        <v>5974.01</v>
+        <v>11731.15</v>
       </c>
       <c r="G2251">
-        <v>5974.01</v>
+        <v>11731.15</v>
       </c>
       <c r="H2251" t="s">
         <v>35</v>
@@ -59020,25 +59020,25 @@
     </row>
     <row r="2252" spans="1:8">
       <c r="A2252">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="B2252" t="s">
         <v>27</v>
       </c>
       <c r="C2252" s="2">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="D2252" s="2">
-        <v>45535</v>
+        <v>45565</v>
       </c>
       <c r="E2252">
-        <v>1130.99</v>
+        <v>940.99</v>
       </c>
       <c r="F2252">
-        <v>11731.15</v>
+        <v>12672.14</v>
       </c>
       <c r="G2252">
-        <v>11731.15</v>
+        <v>12672.14</v>
       </c>
       <c r="H2252" t="s">
         <v>35</v>
@@ -59046,25 +59046,25 @@
     </row>
     <row r="2253" spans="1:8">
       <c r="A2253">
-        <v>1877</v>
+        <v>1884</v>
       </c>
       <c r="B2253" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2253" s="2">
-        <v>45536</v>
+        <v>43344</v>
       </c>
       <c r="D2253" s="2">
-        <v>45565</v>
+        <v>43373</v>
       </c>
       <c r="E2253">
-        <v>940.99</v>
+        <v>0</v>
       </c>
       <c r="F2253">
-        <v>12672.14</v>
+        <v>9090.84</v>
       </c>
       <c r="G2253">
-        <v>12672.14</v>
+        <v>9090.84</v>
       </c>
       <c r="H2253" t="s">
         <v>35</v>
@@ -59072,25 +59072,25 @@
     </row>
     <row r="2254" spans="1:8">
       <c r="A2254">
-        <v>1884</v>
+        <v>1903</v>
       </c>
       <c r="B2254" t="s">
         <v>28</v>
       </c>
       <c r="C2254" s="2">
-        <v>43344</v>
+        <v>43922</v>
       </c>
       <c r="D2254" s="2">
-        <v>43373</v>
+        <v>43951</v>
       </c>
       <c r="E2254">
-        <v>0</v>
+        <v>-1143</v>
       </c>
       <c r="F2254">
-        <v>9090.84</v>
+        <v>4132.53</v>
       </c>
       <c r="G2254">
-        <v>9090.84</v>
+        <v>4132.53</v>
       </c>
       <c r="H2254" t="s">
         <v>35</v>
@@ -59098,25 +59098,25 @@
     </row>
     <row r="2255" spans="1:8">
       <c r="A2255">
-        <v>1903</v>
+        <v>1941</v>
       </c>
       <c r="B2255" t="s">
         <v>28</v>
       </c>
       <c r="C2255" s="2">
-        <v>43922</v>
+        <v>45078</v>
       </c>
       <c r="D2255" s="2">
-        <v>43951</v>
+        <v>45107</v>
       </c>
       <c r="E2255">
-        <v>-1143</v>
+        <v>0</v>
       </c>
       <c r="F2255">
-        <v>4132.53</v>
+        <v>513.1900000000001</v>
       </c>
       <c r="G2255">
-        <v>4132.53</v>
+        <v>513.1900000000001</v>
       </c>
       <c r="H2255" t="s">
         <v>35</v>
@@ -59124,25 +59124,25 @@
     </row>
     <row r="2256" spans="1:8">
       <c r="A2256">
-        <v>1941</v>
+        <v>2020</v>
       </c>
       <c r="B2256" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2256" s="2">
-        <v>45078</v>
+        <v>44501</v>
       </c>
       <c r="D2256" s="2">
-        <v>45107</v>
+        <v>44530</v>
       </c>
       <c r="E2256">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="F2256">
-        <v>513.1900000000001</v>
+        <v>49917.01</v>
       </c>
       <c r="G2256">
-        <v>513.1900000000001</v>
+        <v>49917.01</v>
       </c>
       <c r="H2256" t="s">
         <v>35</v>
@@ -59150,25 +59150,25 @@
     </row>
     <row r="2257" spans="1:8">
       <c r="A2257">
-        <v>2266</v>
+        <v>2025</v>
       </c>
       <c r="B2257" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2257" s="2">
-        <v>45566</v>
+        <v>44652</v>
       </c>
       <c r="D2257" s="2">
-        <v>45596</v>
+        <v>44681</v>
       </c>
       <c r="E2257">
-        <v>-28.17</v>
+        <v>-25909</v>
       </c>
       <c r="F2257">
-        <v>349.75</v>
+        <v>56406.98</v>
       </c>
       <c r="G2257">
-        <v>349.75</v>
+        <v>56406.98</v>
       </c>
       <c r="H2257" t="s">
         <v>35</v>
@@ -59176,25 +59176,25 @@
     </row>
     <row r="2258" spans="1:8">
       <c r="A2258">
-        <v>2020</v>
+        <v>2047</v>
       </c>
       <c r="B2258" t="s">
         <v>30</v>
       </c>
       <c r="C2258" s="2">
-        <v>44501</v>
+        <v>45323</v>
       </c>
       <c r="D2258" s="2">
-        <v>44530</v>
+        <v>45351</v>
       </c>
       <c r="E2258">
-        <v>1105</v>
+        <v>41309.31</v>
       </c>
       <c r="F2258">
-        <v>49917.01</v>
+        <v>76097.73</v>
       </c>
       <c r="G2258">
-        <v>49917.01</v>
+        <v>76097.73</v>
       </c>
       <c r="H2258" t="s">
         <v>35</v>
@@ -59202,25 +59202,25 @@
     </row>
     <row r="2259" spans="1:8">
       <c r="A2259">
-        <v>2025</v>
+        <v>2066</v>
       </c>
       <c r="B2259" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2259" s="2">
-        <v>44652</v>
+        <v>43435</v>
       </c>
       <c r="D2259" s="2">
-        <v>44681</v>
+        <v>43465</v>
       </c>
       <c r="E2259">
-        <v>-25909</v>
+        <v>3065</v>
       </c>
       <c r="F2259">
-        <v>56406.98</v>
+        <v>13958.18</v>
       </c>
       <c r="G2259">
-        <v>56406.98</v>
+        <v>13958.18</v>
       </c>
       <c r="H2259" t="s">
         <v>35</v>
@@ -59228,25 +59228,25 @@
     </row>
     <row r="2260" spans="1:8">
       <c r="A2260">
-        <v>2047</v>
+        <v>2094</v>
       </c>
       <c r="B2260" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2260" s="2">
-        <v>45323</v>
+        <v>44287</v>
       </c>
       <c r="D2260" s="2">
-        <v>45351</v>
+        <v>44316</v>
       </c>
       <c r="E2260">
-        <v>41309.31</v>
+        <v>-5090</v>
       </c>
       <c r="F2260">
-        <v>76097.73</v>
+        <v>11927.39</v>
       </c>
       <c r="G2260">
-        <v>76097.73</v>
+        <v>11927.39</v>
       </c>
       <c r="H2260" t="s">
         <v>35</v>
@@ -59254,25 +59254,25 @@
     </row>
     <row r="2261" spans="1:8">
       <c r="A2261">
-        <v>2066</v>
+        <v>2117</v>
       </c>
       <c r="B2261" t="s">
         <v>31</v>
       </c>
       <c r="C2261" s="2">
-        <v>43435</v>
+        <v>44986</v>
       </c>
       <c r="D2261" s="2">
-        <v>43465</v>
+        <v>45016</v>
       </c>
       <c r="E2261">
-        <v>3065</v>
+        <v>2</v>
       </c>
       <c r="F2261">
-        <v>13958.18</v>
+        <v>18224.16</v>
       </c>
       <c r="G2261">
-        <v>13958.18</v>
+        <v>18224.16</v>
       </c>
       <c r="H2261" t="s">
         <v>35</v>
@@ -59280,25 +59280,25 @@
     </row>
     <row r="2262" spans="1:8">
       <c r="A2262">
-        <v>2094</v>
+        <v>2126</v>
       </c>
       <c r="B2262" t="s">
         <v>31</v>
       </c>
       <c r="C2262" s="2">
-        <v>44287</v>
+        <v>45261</v>
       </c>
       <c r="D2262" s="2">
-        <v>44316</v>
+        <v>45291</v>
       </c>
       <c r="E2262">
-        <v>-5090</v>
+        <v>10002</v>
       </c>
       <c r="F2262">
-        <v>11927.39</v>
+        <v>28244.94</v>
       </c>
       <c r="G2262">
-        <v>11927.39</v>
+        <v>28244.94</v>
       </c>
       <c r="H2262" t="s">
         <v>35</v>
@@ -59306,25 +59306,25 @@
     </row>
     <row r="2263" spans="1:8">
       <c r="A2263">
-        <v>2117</v>
+        <v>2152</v>
       </c>
       <c r="B2263" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2263" s="2">
-        <v>44986</v>
+        <v>43617</v>
       </c>
       <c r="D2263" s="2">
-        <v>45016</v>
+        <v>43646</v>
       </c>
       <c r="E2263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2263">
-        <v>18224.16</v>
+        <v>53519.41</v>
       </c>
       <c r="G2263">
-        <v>18224.16</v>
+        <v>53519.41</v>
       </c>
       <c r="H2263" t="s">
         <v>35</v>
@@ -59332,25 +59332,25 @@
     </row>
     <row r="2264" spans="1:8">
       <c r="A2264">
-        <v>2126</v>
+        <v>2174</v>
       </c>
       <c r="B2264" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2264" s="2">
-        <v>45261</v>
+        <v>44287</v>
       </c>
       <c r="D2264" s="2">
-        <v>45291</v>
+        <v>44316</v>
       </c>
       <c r="E2264">
-        <v>10002</v>
+        <v>-58996</v>
       </c>
       <c r="F2264">
-        <v>28244.94</v>
+        <v>216057.94</v>
       </c>
       <c r="G2264">
-        <v>28244.94</v>
+        <v>216057.94</v>
       </c>
       <c r="H2264" t="s">
         <v>35</v>
@@ -59358,25 +59358,25 @@
     </row>
     <row r="2265" spans="1:8">
       <c r="A2265">
-        <v>2267</v>
+        <v>2195</v>
       </c>
       <c r="B2265" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2265" s="2">
-        <v>45566</v>
+        <v>44927</v>
       </c>
       <c r="D2265" s="2">
-        <v>45596</v>
+        <v>44957</v>
       </c>
       <c r="E2265">
-        <v>0.24</v>
+        <v>-306</v>
       </c>
       <c r="F2265">
-        <v>28247.84</v>
+        <v>545252.96</v>
       </c>
       <c r="G2265">
-        <v>28247.84</v>
+        <v>545252.96</v>
       </c>
       <c r="H2265" t="s">
         <v>35</v>
@@ -59384,106 +59384,1250 @@
     </row>
     <row r="2266" spans="1:8">
       <c r="A2266">
-        <v>2152</v>
+        <v>2269</v>
       </c>
       <c r="B2266" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C2266" s="2">
-        <v>43617</v>
+        <v>45597</v>
       </c>
       <c r="D2266" s="2">
-        <v>43646</v>
+        <v>45626</v>
       </c>
       <c r="E2266">
-        <v>3</v>
+        <v>-805.2</v>
       </c>
       <c r="F2266">
-        <v>53519.41</v>
+        <v>0</v>
       </c>
       <c r="G2266">
-        <v>53519.41</v>
+        <v>10748.39</v>
       </c>
       <c r="H2266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2267" spans="1:8">
       <c r="A2267">
-        <v>2174</v>
+        <v>2270</v>
       </c>
       <c r="B2267" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C2267" s="2">
-        <v>44287</v>
+        <v>45627</v>
       </c>
       <c r="D2267" s="2">
-        <v>44316</v>
+        <v>45657</v>
       </c>
       <c r="E2267">
-        <v>-58996</v>
+        <v>-9380.129999999999</v>
       </c>
       <c r="F2267">
-        <v>216057.94</v>
+        <v>0</v>
       </c>
       <c r="G2267">
-        <v>216057.94</v>
+        <v>1368.26</v>
       </c>
       <c r="H2267" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2268" spans="1:8">
       <c r="A2268">
-        <v>2195</v>
+        <v>2271</v>
       </c>
       <c r="B2268" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C2268" s="2">
-        <v>44927</v>
+        <v>45597</v>
       </c>
       <c r="D2268" s="2">
-        <v>44957</v>
+        <v>45626</v>
       </c>
       <c r="E2268">
-        <v>-306</v>
+        <v>-823.9299999999999</v>
       </c>
       <c r="F2268">
-        <v>545252.96</v>
+        <v>0</v>
       </c>
       <c r="G2268">
-        <v>545252.96</v>
+        <v>4527.44</v>
       </c>
       <c r="H2268" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2269" spans="1:8">
       <c r="A2269">
+        <v>2264</v>
+      </c>
+      <c r="B2269" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2269" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2269" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2269">
+        <v>1441.94</v>
+      </c>
+      <c r="F2269">
+        <v>0</v>
+      </c>
+      <c r="G2269">
+        <v>18398.24</v>
+      </c>
+      <c r="H2269" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:8">
+      <c r="A2270">
         <v>2268</v>
       </c>
-      <c r="B2269" t="s">
+      <c r="B2270" t="s">
         <v>32</v>
       </c>
-      <c r="C2269" s="2">
+      <c r="C2270" s="2">
         <v>45566</v>
       </c>
-      <c r="D2269" s="2">
+      <c r="D2270" s="2">
         <v>45596</v>
       </c>
-      <c r="E2269">
+      <c r="E2270">
         <v>119.61</v>
       </c>
-      <c r="F2269">
+      <c r="F2270">
         <v>139498.37</v>
       </c>
-      <c r="G2269">
+      <c r="G2270">
         <v>139498.37</v>
       </c>
-      <c r="H2269" t="s">
-        <v>35</v>
+      <c r="H2270" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:8">
+      <c r="A2271">
+        <v>2272</v>
+      </c>
+      <c r="B2271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2271" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2271" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2271">
+        <v>-2968.08</v>
+      </c>
+      <c r="F2271">
+        <v>0</v>
+      </c>
+      <c r="G2271">
+        <v>1559.36</v>
+      </c>
+      <c r="H2271" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:8">
+      <c r="A2272">
+        <v>2273</v>
+      </c>
+      <c r="B2272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2272" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2272" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2272">
+        <v>1223.03</v>
+      </c>
+      <c r="F2272">
+        <v>0</v>
+      </c>
+      <c r="G2272">
+        <v>12464.02</v>
+      </c>
+      <c r="H2272" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:8">
+      <c r="A2273">
+        <v>2274</v>
+      </c>
+      <c r="B2273" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2273" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2273" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2273">
+        <v>-11317.04</v>
+      </c>
+      <c r="F2273">
+        <v>0</v>
+      </c>
+      <c r="G2273">
+        <v>1146.98</v>
+      </c>
+      <c r="H2273" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:8">
+      <c r="A2274">
+        <v>2275</v>
+      </c>
+      <c r="B2274" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2274" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2274" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2274">
+        <v>-786.48</v>
+      </c>
+      <c r="F2274">
+        <v>0</v>
+      </c>
+      <c r="G2274">
+        <v>7729.26</v>
+      </c>
+      <c r="H2274" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:8">
+      <c r="A2275">
+        <v>2276</v>
+      </c>
+      <c r="B2275" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2275" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2275" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2275">
+        <v>-5997.4</v>
+      </c>
+      <c r="F2275">
+        <v>0</v>
+      </c>
+      <c r="G2275">
+        <v>1731.86</v>
+      </c>
+      <c r="H2275" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:8">
+      <c r="A2276">
+        <v>2262</v>
+      </c>
+      <c r="B2276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2276" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2276" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2276">
+        <v>1134.37</v>
+      </c>
+      <c r="F2276">
+        <v>0</v>
+      </c>
+      <c r="G2276">
+        <v>10570.15</v>
+      </c>
+      <c r="H2276" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:8">
+      <c r="A2277">
+        <v>2277</v>
+      </c>
+      <c r="B2277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2277" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2277" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2277">
+        <v>-9229.41</v>
+      </c>
+      <c r="F2277">
+        <v>0</v>
+      </c>
+      <c r="G2277">
+        <v>1340.74</v>
+      </c>
+      <c r="H2277" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:8">
+      <c r="A2278">
+        <v>2278</v>
+      </c>
+      <c r="B2278" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2278" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2278" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2278">
+        <v>1068.98</v>
+      </c>
+      <c r="F2278">
+        <v>0</v>
+      </c>
+      <c r="G2278">
+        <v>12825.86</v>
+      </c>
+      <c r="H2278" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:8">
+      <c r="A2279">
+        <v>2279</v>
+      </c>
+      <c r="B2279" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2279" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2279" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2279">
+        <v>-11325.64</v>
+      </c>
+      <c r="F2279">
+        <v>0</v>
+      </c>
+      <c r="G2279">
+        <v>1500.22</v>
+      </c>
+      <c r="H2279" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:8">
+      <c r="A2280">
+        <v>2280</v>
+      </c>
+      <c r="B2280" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2280" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2280" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2280">
+        <v>150.03</v>
+      </c>
+      <c r="F2280">
+        <v>0</v>
+      </c>
+      <c r="G2280">
+        <v>3561.58</v>
+      </c>
+      <c r="H2280" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:8">
+      <c r="A2281">
+        <v>2281</v>
+      </c>
+      <c r="B2281" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2281" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2281" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2281">
+        <v>-2349.97</v>
+      </c>
+      <c r="F2281">
+        <v>0</v>
+      </c>
+      <c r="G2281">
+        <v>1211.61</v>
+      </c>
+      <c r="H2281" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:8">
+      <c r="A2282">
+        <v>2282</v>
+      </c>
+      <c r="B2282" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2282" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2282" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2282">
+        <v>2983.84</v>
+      </c>
+      <c r="F2282">
+        <v>0</v>
+      </c>
+      <c r="G2282">
+        <v>22101.78</v>
+      </c>
+      <c r="H2282" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:8">
+      <c r="A2283">
+        <v>2283</v>
+      </c>
+      <c r="B2283" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2283" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2283" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2283">
+        <v>-20236.13</v>
+      </c>
+      <c r="F2283">
+        <v>0</v>
+      </c>
+      <c r="G2283">
+        <v>1865.65</v>
+      </c>
+      <c r="H2283" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:8">
+      <c r="A2284">
+        <v>2284</v>
+      </c>
+      <c r="B2284" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2284" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2284" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2284">
+        <v>1306.62</v>
+      </c>
+      <c r="F2284">
+        <v>0</v>
+      </c>
+      <c r="G2284">
+        <v>14199.8</v>
+      </c>
+      <c r="H2284" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:8">
+      <c r="A2285">
+        <v>2285</v>
+      </c>
+      <c r="B2285" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2285" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2285" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2285">
+        <v>-13041.2</v>
+      </c>
+      <c r="F2285">
+        <v>0</v>
+      </c>
+      <c r="G2285">
+        <v>1158.6</v>
+      </c>
+      <c r="H2285" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:8">
+      <c r="A2286">
+        <v>2286</v>
+      </c>
+      <c r="B2286" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2286" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2286" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2286">
+        <v>0</v>
+      </c>
+      <c r="F2286">
+        <v>0</v>
+      </c>
+      <c r="G2286">
+        <v>1965.73</v>
+      </c>
+      <c r="H2286" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:8">
+      <c r="A2287">
+        <v>2287</v>
+      </c>
+      <c r="B2287" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2287" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2287" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2287">
+        <v>0</v>
+      </c>
+      <c r="F2287">
+        <v>0</v>
+      </c>
+      <c r="G2287">
+        <v>1965.73</v>
+      </c>
+      <c r="H2287" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:8">
+      <c r="A2288">
+        <v>2288</v>
+      </c>
+      <c r="B2288" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2288" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2288" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2288">
+        <v>0.02</v>
+      </c>
+      <c r="F2288">
+        <v>0</v>
+      </c>
+      <c r="G2288">
+        <v>1723.53</v>
+      </c>
+      <c r="H2288" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:8">
+      <c r="A2289">
+        <v>2289</v>
+      </c>
+      <c r="B2289" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2289" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2289" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2289">
+        <v>0.01</v>
+      </c>
+      <c r="F2289">
+        <v>0</v>
+      </c>
+      <c r="G2289">
+        <v>1723.54</v>
+      </c>
+      <c r="H2289" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:8">
+      <c r="A2290">
+        <v>2290</v>
+      </c>
+      <c r="B2290" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2290" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2290" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2290">
+        <v>-5683.63</v>
+      </c>
+      <c r="F2290">
+        <v>0</v>
+      </c>
+      <c r="G2290">
+        <v>1895.85</v>
+      </c>
+      <c r="H2290" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:8">
+      <c r="A2291">
+        <v>2291</v>
+      </c>
+      <c r="B2291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2291" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2291" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2291">
+        <v>-306.6</v>
+      </c>
+      <c r="F2291">
+        <v>0</v>
+      </c>
+      <c r="G2291">
+        <v>15262.7</v>
+      </c>
+      <c r="H2291" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:8">
+      <c r="A2292">
+        <v>2292</v>
+      </c>
+      <c r="B2292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2292" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2292" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2292">
+        <v>-13556.85</v>
+      </c>
+      <c r="F2292">
+        <v>0</v>
+      </c>
+      <c r="G2292">
+        <v>1705.85</v>
+      </c>
+      <c r="H2292" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:8">
+      <c r="A2293">
+        <v>2293</v>
+      </c>
+      <c r="B2293" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2293" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2293" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2293">
+        <v>1453.71</v>
+      </c>
+      <c r="F2293">
+        <v>0</v>
+      </c>
+      <c r="G2293">
+        <v>27735.07</v>
+      </c>
+      <c r="H2293" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:8">
+      <c r="A2294">
+        <v>2294</v>
+      </c>
+      <c r="B2294" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2294" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2294" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2294">
+        <v>-25478.64</v>
+      </c>
+      <c r="F2294">
+        <v>0</v>
+      </c>
+      <c r="G2294">
+        <v>2256.43</v>
+      </c>
+      <c r="H2294" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:8">
+      <c r="A2295">
+        <v>2295</v>
+      </c>
+      <c r="B2295" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2295" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2295" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2295">
+        <v>-16841.48</v>
+      </c>
+      <c r="F2295">
+        <v>0</v>
+      </c>
+      <c r="G2295">
+        <v>1556.76</v>
+      </c>
+      <c r="H2295" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:8">
+      <c r="A2296">
+        <v>2265</v>
+      </c>
+      <c r="B2296" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2296" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2296" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2296">
+        <v>3174.94</v>
+      </c>
+      <c r="F2296">
+        <v>0</v>
+      </c>
+      <c r="G2296">
+        <v>15274.07</v>
+      </c>
+      <c r="H2296" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:8">
+      <c r="A2297">
+        <v>2296</v>
+      </c>
+      <c r="B2297" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2297" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2297" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2297">
+        <v>-12968.77</v>
+      </c>
+      <c r="F2297">
+        <v>0</v>
+      </c>
+      <c r="G2297">
+        <v>2305.3</v>
+      </c>
+      <c r="H2297" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:8">
+      <c r="A2298">
+        <v>2297</v>
+      </c>
+      <c r="B2298" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2298" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2298" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2298">
+        <v>3191.05</v>
+      </c>
+      <c r="F2298">
+        <v>0</v>
+      </c>
+      <c r="G2298">
+        <v>3380.73</v>
+      </c>
+      <c r="H2298" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:8">
+      <c r="A2299">
+        <v>2298</v>
+      </c>
+      <c r="B2299" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2299" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2299" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2299">
+        <v>-1688.33</v>
+      </c>
+      <c r="F2299">
+        <v>0</v>
+      </c>
+      <c r="G2299">
+        <v>1692.4</v>
+      </c>
+      <c r="H2299" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:8">
+      <c r="A2300">
+        <v>2299</v>
+      </c>
+      <c r="B2300" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2300" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2300" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2300">
+        <v>1156.21</v>
+      </c>
+      <c r="F2300">
+        <v>0</v>
+      </c>
+      <c r="G2300">
+        <v>13622.92</v>
+      </c>
+      <c r="H2300" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:8">
+      <c r="A2301">
+        <v>2300</v>
+      </c>
+      <c r="B2301" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2301" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2301" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2301">
+        <v>-11614.19</v>
+      </c>
+      <c r="F2301">
+        <v>0</v>
+      </c>
+      <c r="G2301">
+        <v>2008.73</v>
+      </c>
+      <c r="H2301" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:8">
+      <c r="A2302">
+        <v>2301</v>
+      </c>
+      <c r="B2302" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2302" s="2">
+        <v>45658</v>
+      </c>
+      <c r="D2302" s="2">
+        <v>45688</v>
+      </c>
+      <c r="E2302">
+        <v>-75</v>
+      </c>
+      <c r="F2302">
+        <v>0</v>
+      </c>
+      <c r="G2302">
+        <v>1933.73</v>
+      </c>
+      <c r="H2302" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:8">
+      <c r="A2303">
+        <v>2302</v>
+      </c>
+      <c r="B2303" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2303" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2303" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2303">
+        <v>1230.99</v>
+      </c>
+      <c r="F2303">
+        <v>0</v>
+      </c>
+      <c r="G2303">
+        <v>15134.12</v>
+      </c>
+      <c r="H2303" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:8">
+      <c r="A2304">
+        <v>2303</v>
+      </c>
+      <c r="B2304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2304" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2304" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2304">
+        <v>-13243.3</v>
+      </c>
+      <c r="F2304">
+        <v>0</v>
+      </c>
+      <c r="G2304">
+        <v>1890.82</v>
+      </c>
+      <c r="H2304" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:8">
+      <c r="A2305">
+        <v>2304</v>
+      </c>
+      <c r="B2305" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2305" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2305" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2305">
+        <v>-28.22</v>
+      </c>
+      <c r="F2305">
+        <v>0</v>
+      </c>
+      <c r="G2305">
+        <v>321.53</v>
+      </c>
+      <c r="H2305" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:8">
+      <c r="A2306">
+        <v>2305</v>
+      </c>
+      <c r="B2306" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2306" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2306" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2306">
+        <v>-41.69</v>
+      </c>
+      <c r="F2306">
+        <v>0</v>
+      </c>
+      <c r="G2306">
+        <v>279.84</v>
+      </c>
+      <c r="H2306" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:8">
+      <c r="A2307">
+        <v>2306</v>
+      </c>
+      <c r="B2307" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2307" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2307" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2307">
+        <v>0</v>
+      </c>
+      <c r="F2307">
+        <v>0</v>
+      </c>
+      <c r="G2307">
+        <v>23580</v>
+      </c>
+      <c r="H2307" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:8">
+      <c r="A2308">
+        <v>2307</v>
+      </c>
+      <c r="B2308" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2308" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2308" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2308">
+        <v>-15221.75</v>
+      </c>
+      <c r="F2308">
+        <v>0</v>
+      </c>
+      <c r="G2308">
+        <v>17122.73</v>
+      </c>
+      <c r="H2308" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:8">
+      <c r="A2309">
+        <v>2308</v>
+      </c>
+      <c r="B2309" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2309" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2309" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2309">
+        <v>3101.2</v>
+      </c>
+      <c r="F2309">
+        <v>0</v>
+      </c>
+      <c r="G2309">
+        <v>20223.93</v>
+      </c>
+      <c r="H2309" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:8">
+      <c r="A2310">
+        <v>2309</v>
+      </c>
+      <c r="B2310" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2310" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2310" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2310">
+        <v>0.23</v>
+      </c>
+      <c r="F2310">
+        <v>0</v>
+      </c>
+      <c r="G2310">
+        <v>28248.07</v>
+      </c>
+      <c r="H2310" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:8">
+      <c r="A2311">
+        <v>2310</v>
+      </c>
+      <c r="B2311" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2311" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2311" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2311">
+        <v>10000.24</v>
+      </c>
+      <c r="F2311">
+        <v>0</v>
+      </c>
+      <c r="G2311">
+        <v>38248.31</v>
+      </c>
+      <c r="H2311" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:8">
+      <c r="A2312">
+        <v>2311</v>
+      </c>
+      <c r="B2312" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2312" s="2">
+        <v>45597</v>
+      </c>
+      <c r="D2312" s="2">
+        <v>45626</v>
+      </c>
+      <c r="E2312">
+        <v>-7135.15</v>
+      </c>
+      <c r="F2312">
+        <v>0</v>
+      </c>
+      <c r="G2312">
+        <v>132363.22</v>
+      </c>
+      <c r="H2312" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:8">
+      <c r="A2313">
+        <v>2312</v>
+      </c>
+      <c r="B2313" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2313" s="2">
+        <v>45627</v>
+      </c>
+      <c r="D2313" s="2">
+        <v>45657</v>
+      </c>
+      <c r="E2313">
+        <v>135377.49</v>
+      </c>
+      <c r="F2313">
+        <v>0</v>
+      </c>
+      <c r="G2313">
+        <v>267740.71</v>
+      </c>
+      <c r="H2313" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
